--- a/FFT-Band-Bin calculator-x80.xlsx
+++ b/FFT-Band-Bin calculator-x80.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Sample Rate</t>
   </si>
@@ -138,7 +138,13 @@
     <t>SAMPLE_SKIP</t>
   </si>
   <si>
-    <t>Total 44100Hz Samples</t>
+    <t>Sample Duration</t>
+  </si>
+  <si>
+    <t>mSec</t>
+  </si>
+  <si>
+    <t>pack</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,18 +321,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -741,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="B5" s="2">
         <f>44100/B4</f>
-        <v>8820</v>
+        <v>7350</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -814,7 +814,8 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>55</v>
+        <f>I22</f>
+        <v>43.653528929125493</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -824,7 +825,7 @@
       </c>
       <c r="K6" s="13">
         <f>POWER(2,K5)</f>
-        <v>16</v>
+        <v>9.8491553067593287</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -836,7 +837,7 @@
       </c>
       <c r="B7" s="16">
         <f>K7</f>
-        <v>880</v>
+        <v>429.95038611106821</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -846,7 +847,7 @@
       </c>
       <c r="K7" s="13">
         <f>K6*B6</f>
-        <v>880</v>
+        <v>429.95038611106821</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -875,7 +876,7 @@
       </c>
       <c r="B9" s="4">
         <f>K9</f>
-        <v>49</v>
+        <v>40.599999999999994</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -888,1057 +889,1036 @@
       </c>
       <c r="K9">
         <f>(K5*K8)+1</f>
-        <v>49</v>
+        <v>40.599999999999994</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="19">
+        <f>1*B8/B5</f>
+        <v>0.27863945578231292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
-        <f>B8*B4</f>
-        <v>10240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <f>POWER(B7/B6,1/(B9-1))</f>
         <v>1.0594630943592953</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <f>B5/2</f>
-        <v>4410</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <f>B5/B8</f>
-        <v>4.306640625</v>
+        <f>B5/2</f>
+        <v>3675</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>B5/B8</f>
+        <v>3.5888671875</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>B8/2-1</f>
         <v>1023</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="10">
-        <f>G17-(G18-G17)</f>
-        <v>12.368696021942363</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="G17" s="10">
+        <f>G18-(G19-G18)</f>
+        <v>11.780448646023713</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="5">
         <v>0</v>
       </c>
-      <c r="C17" s="11">
-        <f t="shared" ref="C17:C80" si="0">$B$6*POWER($B$11,B17)</f>
-        <v>55</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:D80" si="1">C17/$B$13</f>
-        <v>12.770975056689343</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:C49" si="0">$B$6*POWER($B$12,B18)</f>
+        <v>43.653528929125493</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D81" si="1">C18/$B$14</f>
+        <v>12.163595543788981</v>
+      </c>
+      <c r="E18" s="14">
         <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <f>((D18-D17)/2)+D17</f>
-        <v>13.150675904117406</v>
-      </c>
-      <c r="G17" s="10">
-        <f>F17</f>
-        <v>13.150675904117406</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <f>B17+1</f>
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>58.270470189761241</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="1"/>
-        <v>13.530376751545468</v>
-      </c>
-      <c r="E18" s="14">
-        <f>F17</f>
-        <v>13.150675904117406</v>
       </c>
       <c r="F18" s="15">
         <f>((D19-D18)/2)+D18</f>
-        <v>13.93265578629245</v>
+        <v>12.525238058573294</v>
       </c>
       <c r="G18" s="10">
-        <f t="shared" ref="G18:G81" si="2">F18</f>
-        <v>13.93265578629245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <f>F18</f>
+        <v>12.525238058573294</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <f t="shared" ref="B19:B82" si="3">B18+1</f>
-        <v>2</v>
+        <f>B18+1</f>
+        <v>1</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="0"/>
-        <v>61.735412657015516</v>
+        <v>46.249302838954307</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="1"/>
-        <v>14.334934821039431</v>
+        <v>12.886880573357608</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" ref="E19:E82" si="4">F18</f>
-        <v>13.93265578629245</v>
+        <f>F18</f>
+        <v>12.525238058573294</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" ref="F19:F82" si="5">((D20-D19)/2)+D19</f>
-        <v>14.761134611988339</v>
+        <f>((D20-D19)/2)+D19</f>
+        <v>13.270027471122875</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="2"/>
-        <v>14.761134611988339</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G19:G82" si="2">F19</f>
+        <v>13.270027471122875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" ref="B20:B83" si="3">B19+1</f>
+        <v>2</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="0"/>
-        <v>65.40639132514967</v>
+        <v>48.999429497718673</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="1"/>
-        <v>15.187334402937248</v>
+        <v>13.653174368888141</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" si="4"/>
-        <v>14.761134611988339</v>
+        <f t="shared" ref="E20:E83" si="4">F19</f>
+        <v>13.270027471122875</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="5"/>
-        <v>15.638877352271262</v>
+        <f t="shared" ref="F20:F83" si="5">((D21-D20)/2)+D20</f>
+        <v>14.059104366788695</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>15.638877352271262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14.059104366788695</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="0"/>
-        <v>69.295657744218019</v>
+        <v>51.913087197493162</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="1"/>
-        <v>16.090420301605274</v>
+        <v>14.465034364689251</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="4"/>
-        <v>15.638877352271262</v>
+        <v>14.059104366788695</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="5"/>
-        <v>16.568813391942811</v>
+        <v>14.895102216358232</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>16.568813391942811</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14.895102216358232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="0"/>
-        <v>73.416191979351893</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="D22" s="6">
         <f t="shared" si="1"/>
-        <v>17.047206482280348</v>
+        <v>15.325170068027212</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="4"/>
-        <v>16.568813391942811</v>
+        <v>14.895102216358232</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="5"/>
-        <v>17.554046306089461</v>
+        <v>15.780811084940888</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>17.554046306089461</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>15.780811084940888</v>
+      </c>
+      <c r="I22">
+        <v>43.653528929125493</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="0"/>
-        <v>77.781745930520231</v>
+        <v>58.270470189761248</v>
       </c>
       <c r="D23" s="6">
         <f t="shared" si="1"/>
-        <v>18.060886129898574</v>
+        <v>16.236452101854564</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="4"/>
-        <v>17.554046306089461</v>
+        <v>15.780811084940888</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="5"/>
-        <v>18.597864217975896</v>
+        <v>16.719186943550945</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>18.597864217975896</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>16.719186943550945</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="0"/>
-        <v>82.406889228217494</v>
+        <v>61.73541265701553</v>
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>19.134842306053223</v>
+        <v>17.201921785247322</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="4"/>
-        <v>18.597864217975896</v>
+        <v>16.719186943550945</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="5"/>
-        <v>19.703750772850761</v>
+        <v>17.71336153438601</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>19.703750772850761</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17.71336153438601</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="0"/>
-        <v>87.307057858250971</v>
+        <v>65.406391325149684</v>
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>20.272659239648299</v>
+        <v>18.224801283524702</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" si="4"/>
-        <v>19.703750772850761</v>
+        <v>17.71336153438601</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="5"/>
-        <v>20.875396764288823</v>
+        <v>18.766652822725518</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>20.875396764288823</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>18.766652822725518</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="0"/>
-        <v>92.498605677908614</v>
+        <v>69.295657744218033</v>
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>21.478134288929347</v>
+        <v>19.308504361926332</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="4"/>
-        <v>20.875396764288823</v>
+        <v>18.766652822725518</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="5"/>
-        <v>22.116712451871457</v>
+        <v>19.882576070331375</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>22.116712451871457</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>19.882576070331375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" si="0"/>
-        <v>97.998858995437331</v>
+        <v>73.416191979351908</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="1"/>
-        <v>22.755290614813568</v>
+        <v>20.456647778736421</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="4"/>
-        <v>22.116712451871457</v>
+        <v>19.882576070331375</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="5"/>
-        <v>23.431840611314492</v>
+        <v>21.064855567307358</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>23.431840611314492</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+        <v>21.064855567307358</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="0"/>
-        <v>103.82617439498631</v>
+        <v>77.781745930520245</v>
       </c>
       <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>24.108390607815416</v>
+        <v>21.673063355878295</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" si="4"/>
-        <v>23.431840611314492</v>
+        <v>21.064855567307358</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="5"/>
-        <v>24.825170360597049</v>
+        <v>22.317437061571084</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>24.825170360597049</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+        <v>22.317437061571084</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>82.406889228217523</v>
       </c>
       <c r="D29" s="6">
         <f t="shared" si="1"/>
-        <v>25.541950113378686</v>
+        <v>22.961810767263877</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" si="4"/>
-        <v>24.825170360597049</v>
+        <v>22.317437061571084</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>26.301351808234813</v>
+        <v>23.644500927420921</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" si="2"/>
-        <v>26.301351808234813</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+        <v>23.644500927420921</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="0"/>
-        <v>116.54094037952248</v>
+        <v>87.307057858250985</v>
       </c>
       <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>27.060753503090936</v>
+        <v>24.327191087577962</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="4"/>
-        <v>26.301351808234813</v>
+        <v>23.644500927420921</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>27.865311572584901</v>
+        <v>25.050476117146587</v>
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>27.865311572584901</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+        <v>25.050476117146587</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" si="0"/>
-        <v>123.47082531403106</v>
+        <v>92.498605677908614</v>
       </c>
       <c r="D31" s="6">
         <f t="shared" si="1"/>
-        <v>28.669869642078869</v>
+        <v>25.773761146715216</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="4"/>
-        <v>27.865311572584901</v>
+        <v>25.050476117146587</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="5"/>
-        <v>29.522269223976682</v>
+        <v>26.540054942245753</v>
       </c>
       <c r="G31" s="10">
         <f t="shared" si="2"/>
-        <v>29.522269223976682</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+        <v>26.540054942245753</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" si="0"/>
-        <v>130.81278265029934</v>
+        <v>97.998858995437359</v>
       </c>
       <c r="D32" s="6">
         <f t="shared" si="1"/>
-        <v>30.374668805874496</v>
+        <v>27.306348737776286</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="4"/>
-        <v>29.522269223976682</v>
+        <v>26.540054942245753</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="5"/>
-        <v>31.277754704542524</v>
+        <v>28.118208733577394</v>
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>31.277754704542524</v>
+        <v>28.118208733577394</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" si="0"/>
-        <v>138.59131548843607</v>
+        <v>103.82617439498632</v>
       </c>
       <c r="D33" s="6">
         <f t="shared" si="1"/>
-        <v>32.180840603210548</v>
+        <v>28.930068729378501</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="4"/>
-        <v>31.277754704542524</v>
+        <v>28.118208733577394</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="5"/>
-        <v>33.137626783885622</v>
+        <v>29.790204432716468</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>33.137626783885622</v>
+        <v>29.790204432716468</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11">
         <f t="shared" si="0"/>
-        <v>146.83238395870382</v>
+        <v>110.00000000000004</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="1"/>
-        <v>34.094412964560703</v>
+        <v>30.650340136054435</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="4"/>
-        <v>33.137626783885622</v>
+        <v>29.790204432716468</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="5"/>
-        <v>35.108092612178929</v>
+        <v>31.561622169881787</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>35.108092612178929</v>
+        <v>31.561622169881787</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" si="0"/>
-        <v>155.56349186104049</v>
+        <v>116.54094037952252</v>
       </c>
       <c r="D35" s="6">
         <f t="shared" si="1"/>
-        <v>36.121772259797154</v>
+        <v>32.472904203709135</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="4"/>
-        <v>35.108092612178929</v>
+        <v>31.561622169881787</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="5"/>
-        <v>37.195728435951807</v>
+        <v>33.438373887101889</v>
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>37.195728435951807</v>
+        <v>33.438373887101889</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="0"/>
-        <v>164.81377845643502</v>
+        <v>123.47082531403107</v>
       </c>
       <c r="D36" s="6">
         <f t="shared" si="1"/>
-        <v>38.269684612106452</v>
+        <v>34.403843570494644</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="4"/>
-        <v>37.195728435951807</v>
+        <v>33.438373887101889</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="5"/>
-        <v>39.407501545701528</v>
+        <v>35.42672306877202</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="2"/>
-        <v>39.407501545701528</v>
+        <v>35.42672306877202</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="0"/>
-        <v>174.61411571650197</v>
+        <v>130.81278265029937</v>
       </c>
       <c r="D37" s="6">
         <f t="shared" si="1"/>
-        <v>40.545318479296604</v>
+        <v>36.449602567049403</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="4"/>
-        <v>39.407501545701528</v>
+        <v>35.42672306877202</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="5"/>
-        <v>41.750793528577645</v>
+        <v>37.533305645451037</v>
       </c>
       <c r="G37" s="10">
         <f t="shared" si="2"/>
-        <v>41.750793528577645</v>
+        <v>37.533305645451037</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38" s="11">
         <f t="shared" si="0"/>
-        <v>184.99721135581723</v>
+        <v>138.59131548843609</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="1"/>
-        <v>42.956268577858694</v>
+        <v>38.61700872385267</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="4"/>
-        <v>41.750793528577645</v>
+        <v>37.533305645451037</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="5"/>
-        <v>44.233424903742915</v>
+        <v>39.765152140662764</v>
       </c>
       <c r="G38" s="10">
         <f t="shared" si="2"/>
-        <v>44.233424903742915</v>
+        <v>39.765152140662764</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="11">
         <f t="shared" si="0"/>
-        <v>195.99771799087469</v>
+        <v>146.83238395870384</v>
       </c>
       <c r="D39" s="6">
         <f t="shared" si="1"/>
-        <v>45.510581229627142</v>
+        <v>40.91329555747285</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="4"/>
-        <v>44.233424903742915</v>
+        <v>39.765152140662764</v>
       </c>
       <c r="F39" s="15">
         <f t="shared" si="5"/>
-        <v>46.86368122262899</v>
+        <v>42.129711134614723</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="2"/>
-        <v>46.86368122262899</v>
+        <v>42.129711134614723</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="11">
         <f t="shared" si="0"/>
-        <v>207.65234878997265</v>
+        <v>155.56349186104052</v>
       </c>
       <c r="D40" s="6">
         <f t="shared" si="1"/>
-        <v>48.216781215630839</v>
+        <v>43.346126711756597</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="4"/>
-        <v>46.86368122262899</v>
+        <v>42.129711134614723</v>
       </c>
       <c r="F40" s="15">
         <f t="shared" si="5"/>
-        <v>49.650340721194112</v>
+        <v>44.634874123142176</v>
       </c>
       <c r="G40" s="10">
         <f t="shared" si="2"/>
-        <v>49.650340721194112</v>
+        <v>44.634874123142176</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="11">
         <f t="shared" si="0"/>
-        <v>220.00000000000006</v>
+        <v>164.81377845643505</v>
       </c>
       <c r="D41" s="6">
         <f t="shared" si="1"/>
-        <v>51.083900226757386</v>
+        <v>45.923621534527754</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="4"/>
-        <v>49.650340721194112</v>
+        <v>44.634874123142176</v>
       </c>
       <c r="F41" s="15">
         <f t="shared" si="5"/>
-        <v>52.602703616469633</v>
+        <v>47.289001854841842</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="2"/>
-        <v>52.602703616469633</v>
+        <v>47.289001854841842</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11">
         <f t="shared" si="0"/>
-        <v>233.08188075904502</v>
+        <v>174.614115716502</v>
       </c>
       <c r="D42" s="6">
         <f t="shared" si="1"/>
-        <v>54.121507006181879</v>
+        <v>48.654382175155931</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" si="4"/>
-        <v>52.602703616469633</v>
+        <v>47.289001854841842</v>
       </c>
       <c r="F42" s="15">
         <f t="shared" si="5"/>
-        <v>55.730623145169808</v>
+        <v>50.100952234293189</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="2"/>
-        <v>55.730623145169808</v>
+        <v>50.100952234293189</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="11">
         <f t="shared" si="0"/>
-        <v>246.94165062806212</v>
+        <v>184.99721135581729</v>
       </c>
       <c r="D43" s="6">
         <f t="shared" si="1"/>
-        <v>57.339739284157737</v>
+        <v>51.547522293430447</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="4"/>
-        <v>55.730623145169808</v>
+        <v>50.100952234293189</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="5"/>
-        <v>59.044538447953379</v>
+        <v>53.080109884491506</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="2"/>
-        <v>59.044538447953379</v>
+        <v>53.080109884491506</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="11">
         <f t="shared" si="0"/>
-        <v>261.62556530059879</v>
+        <v>195.99771799087472</v>
       </c>
       <c r="D44" s="6">
         <f t="shared" si="1"/>
-        <v>60.74933761174902</v>
+        <v>54.612697475552572</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" si="4"/>
-        <v>59.044538447953379</v>
+        <v>53.080109884491506</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="5"/>
-        <v>62.555509409085062</v>
+        <v>56.236417467154794</v>
       </c>
       <c r="G44" s="10">
         <f t="shared" si="2"/>
-        <v>62.555509409085062</v>
+        <v>56.236417467154794</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="11">
         <f t="shared" si="0"/>
-        <v>277.18263097687213</v>
+        <v>207.65234878997271</v>
       </c>
       <c r="D45" s="6">
         <f t="shared" si="1"/>
-        <v>64.361681206421096</v>
+        <v>57.860137458757023</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="4"/>
-        <v>62.555509409085062</v>
+        <v>56.236417467154794</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="5"/>
-        <v>66.275253567771244</v>
+        <v>59.580408865432943</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="2"/>
-        <v>66.275253567771244</v>
+        <v>59.580408865432943</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="11">
         <f t="shared" si="0"/>
-        <v>293.66476791740763</v>
+        <v>220.00000000000009</v>
       </c>
       <c r="D46" s="6">
         <f t="shared" si="1"/>
-        <v>68.188825929121407</v>
+        <v>61.30068027210887</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" si="4"/>
-        <v>66.275253567771244</v>
+        <v>59.580408865432943</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="5"/>
-        <v>70.216185224357872</v>
+        <v>63.123244339763573</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="2"/>
-        <v>70.216185224357872</v>
+        <v>63.123244339763573</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="11">
         <f t="shared" si="0"/>
-        <v>311.12698372208104</v>
+        <v>233.08188075904505</v>
       </c>
       <c r="D47" s="6">
         <f t="shared" si="1"/>
-        <v>72.243544519594323</v>
+        <v>64.945808407418269</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" si="4"/>
-        <v>70.216185224357872</v>
+        <v>63.123244339763573</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="5"/>
-        <v>74.391456871903614</v>
+        <v>66.876747774203778</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="2"/>
-        <v>74.391456871903614</v>
+        <v>66.876747774203778</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="5">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="11">
         <f t="shared" si="0"/>
-        <v>329.62755691287003</v>
+        <v>246.94165062806218</v>
       </c>
       <c r="D48" s="6">
         <f t="shared" si="1"/>
-        <v>76.539369224212905</v>
+        <v>68.807687140989302</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" si="4"/>
-        <v>74.391456871903614</v>
+        <v>66.876747774203778</v>
       </c>
       <c r="F48" s="15">
         <f t="shared" si="5"/>
-        <v>78.815003091403071</v>
+        <v>70.853446137544054</v>
       </c>
       <c r="G48" s="10">
         <f t="shared" si="2"/>
-        <v>78.815003091403071</v>
+        <v>70.853446137544054</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="11">
         <f t="shared" si="0"/>
-        <v>349.228231433004</v>
+        <v>261.62556530059874</v>
       </c>
       <c r="D49" s="6">
         <f t="shared" si="1"/>
-        <v>81.090636958593223</v>
+        <v>72.899205134098807</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" si="4"/>
-        <v>78.815003091403071</v>
+        <v>70.853446137544054</v>
       </c>
       <c r="F49" s="15">
         <f t="shared" si="5"/>
-        <v>83.501587057155319</v>
+        <v>75.066611290902074</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="2"/>
-        <v>83.501587057155319</v>
+        <v>75.066611290902074</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" si="0"/>
-        <v>369.99442271163451</v>
+        <f t="shared" ref="C50:C81" si="6">$B$6*POWER($B$12,B50)</f>
+        <v>277.18263097687225</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>85.912537155717402</v>
+        <v>77.234017447705355</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="4"/>
-        <v>83.501587057155319</v>
+        <v>75.066611290902074</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="5"/>
-        <v>88.466849807485843</v>
+        <v>79.530304281325527</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="2"/>
-        <v>88.466849807485843</v>
+        <v>79.530304281325527</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="0"/>
-        <v>391.99543598174944</v>
+        <f t="shared" si="6"/>
+        <v>293.66476791740769</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>91.021162459254285</v>
+        <v>81.8265911149457</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="4"/>
-        <v>88.466849807485843</v>
+        <v>79.530304281325527</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="5"/>
-        <v>93.727362445257995</v>
+        <v>84.259422269229447</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="2"/>
-        <v>93.727362445257995</v>
+        <v>84.259422269229447</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" si="0"/>
-        <v>415.30469757994535</v>
+        <f t="shared" si="6"/>
+        <v>311.12698372208109</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>96.433562431261691</v>
+        <v>86.692253423513208</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>93.727362445257995</v>
+        <v>84.259422269229447</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="5"/>
-        <v>99.300681442388225</v>
+        <v>89.269748246284365</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="2"/>
-        <v>99.300681442388225</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="18"/>
+        <v>89.269748246284365</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="11">
-        <f t="shared" si="0"/>
-        <v>440.00000000000017</v>
+        <f t="shared" si="6"/>
+        <v>329.62755691287015</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>102.16780045351477</v>
+        <v>91.847243069055523</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="4"/>
-        <v>99.300681442388225</v>
+        <v>89.269748246284365</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="5"/>
-        <v>105.20540723293927</v>
+        <v>94.578003709683713</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="2"/>
-        <v>105.20540723293927</v>
+        <v>94.578003709683713</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="18"/>
@@ -1946,27 +1926,27 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" si="0"/>
-        <v>466.16376151809004</v>
+        <f t="shared" si="6"/>
+        <v>349.22823143300411</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
-        <v>108.24301401236376</v>
+        <v>97.30876435031189</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="4"/>
-        <v>105.20540723293927</v>
+        <v>94.578003709683713</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="5"/>
-        <v>111.46124629033963</v>
+        <v>100.20190446858639</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="2"/>
-        <v>111.46124629033963</v>
+        <v>100.20190446858639</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="18"/>
@@ -1974,27 +1954,27 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="11">
-        <f t="shared" si="0"/>
-        <v>493.8833012561243</v>
+        <f t="shared" si="6"/>
+        <v>369.99442271163457</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="1"/>
-        <v>114.67947856831549</v>
+        <v>103.09504458686089</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="4"/>
-        <v>111.46124629033963</v>
+        <v>100.20190446858639</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="5"/>
-        <v>118.08907689590677</v>
+        <v>106.16021976898304</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" si="2"/>
-        <v>118.08907689590677</v>
+        <v>106.16021976898304</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="18"/>
@@ -2002,27 +1982,27 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" si="0"/>
-        <v>523.25113060119759</v>
+        <f t="shared" si="6"/>
+        <v>391.99543598174955</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="1"/>
-        <v>121.49867522349804</v>
+        <v>109.22539495110519</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="4"/>
-        <v>118.08907689590677</v>
+        <v>106.16021976898304</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="5"/>
-        <v>125.11101881817012</v>
+        <v>112.47283493430962</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="2"/>
-        <v>125.11101881817012</v>
+        <v>112.47283493430962</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="18"/>
@@ -2030,27 +2010,27 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" si="0"/>
-        <v>554.36526195374438</v>
+        <f t="shared" si="6"/>
+        <v>415.30469757994541</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="1"/>
-        <v>128.72336241284222</v>
+        <v>115.72027491751405</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="4"/>
-        <v>125.11101881817012</v>
+        <v>112.47283493430962</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="5"/>
-        <v>132.55050713554255</v>
+        <v>119.1608177308659</v>
       </c>
       <c r="G57" s="10">
         <f t="shared" si="2"/>
-        <v>132.55050713554255</v>
+        <v>119.1608177308659</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="18"/>
@@ -2058,27 +2038,27 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="5">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="11">
-        <f t="shared" si="0"/>
-        <v>587.32953583481537</v>
+        <f t="shared" si="6"/>
+        <v>440.00000000000023</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="1"/>
-        <v>136.37765185824284</v>
+        <v>122.60136054421775</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="4"/>
-        <v>132.55050713554255</v>
+        <v>119.1608177308659</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="5"/>
-        <v>140.43237044871574</v>
+        <v>126.24648867952716</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="2"/>
-        <v>140.43237044871574</v>
+        <v>126.24648867952716</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="18"/>
@@ -2086,27 +2066,27 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" si="0"/>
-        <v>622.25396744416207</v>
+        <f t="shared" si="6"/>
+        <v>466.16376151809021</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="1"/>
-        <v>144.48708903918865</v>
+        <v>129.89161681483657</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="4"/>
-        <v>140.43237044871574</v>
+        <v>126.24648867952716</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="5"/>
-        <v>148.78291374380726</v>
+        <v>133.75349554840759</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="2"/>
-        <v>148.78291374380726</v>
+        <v>133.75349554840759</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="18"/>
@@ -2114,27 +2094,27 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="11">
-        <f t="shared" si="0"/>
-        <v>659.2551138257403</v>
+        <f t="shared" si="6"/>
+        <v>493.88330125612435</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="1"/>
-        <v>153.07873844842587</v>
+        <v>137.6153742819786</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="4"/>
-        <v>148.78291374380726</v>
+        <v>133.75349554840759</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="5"/>
-        <v>157.63000618280614</v>
+        <v>141.70689227508814</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="2"/>
-        <v>157.63000618280614</v>
+        <v>141.70689227508814</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="18"/>
@@ -2142,27 +2122,27 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="5">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="11">
-        <f t="shared" si="0"/>
-        <v>698.456462866008</v>
+        <f t="shared" si="6"/>
+        <v>523.2511306011977</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>162.18127391718645</v>
+        <v>145.79841026819767</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="4"/>
-        <v>157.63000618280614</v>
+        <v>141.70689227508814</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="5"/>
-        <v>167.00317411431064</v>
+        <v>150.1332225818042</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="2"/>
-        <v>167.00317411431064</v>
+        <v>150.1332225818042</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="18"/>
@@ -2170,27 +2150,27 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="5">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="11">
-        <f t="shared" si="0"/>
-        <v>739.98884542326903</v>
+        <f t="shared" si="6"/>
+        <v>554.36526195374449</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
-        <v>171.8250743114348</v>
+        <v>154.46803489541071</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="4"/>
-        <v>167.00317411431064</v>
+        <v>150.1332225818042</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="5"/>
-        <v>176.93369961497172</v>
+        <v>159.06060856265105</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="2"/>
-        <v>176.93369961497172</v>
+        <v>159.06060856265105</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="18"/>
@@ -2198,27 +2178,27 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="5">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="11">
-        <f t="shared" si="0"/>
-        <v>783.9908719634991</v>
+        <f t="shared" si="6"/>
+        <v>587.32953583481537</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
-        <v>182.04232491850863</v>
+        <v>163.6531822298914</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="4"/>
-        <v>176.93369961497172</v>
+        <v>159.06060856265105</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="5"/>
-        <v>187.45472489051599</v>
+        <v>168.51884453845892</v>
       </c>
       <c r="G63" s="10">
         <f t="shared" si="2"/>
-        <v>187.45472489051599</v>
+        <v>168.51884453845892</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="18"/>
@@ -2226,27 +2206,27 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="11">
-        <f t="shared" si="0"/>
-        <v>830.60939515989071</v>
+        <f t="shared" si="6"/>
+        <v>622.2539674441623</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>192.86712486252338</v>
+        <v>173.38450684702644</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="4"/>
-        <v>187.45472489051599</v>
+        <v>168.51884453845892</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="5"/>
-        <v>198.60136288477645</v>
+        <v>178.53949649256873</v>
       </c>
       <c r="G64" s="10">
         <f t="shared" si="2"/>
-        <v>198.60136288477645</v>
+        <v>178.53949649256873</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="18"/>
@@ -2254,27 +2234,27 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="11">
-        <f t="shared" si="0"/>
-        <v>880.00000000000034</v>
+        <f t="shared" si="6"/>
+        <v>659.2551138257403</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="1"/>
-        <v>204.33560090702954</v>
+        <v>183.69448613811105</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="4"/>
-        <v>198.60136288477645</v>
+        <v>178.53949649256873</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="5"/>
-        <v>210.41081446587856</v>
+        <v>189.15600741936743</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="2"/>
-        <v>210.41081446587856</v>
+        <v>189.15600741936743</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="18"/>
@@ -2282,1345 +2262,1373 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="11">
-        <f t="shared" si="0"/>
-        <v>932.32752303618031</v>
+        <f t="shared" si="6"/>
+        <v>698.45646286600822</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="1"/>
-        <v>216.48602802472757</v>
+        <v>194.61752870062378</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="4"/>
-        <v>210.41081446587856</v>
+        <v>189.15600741936743</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="5"/>
-        <v>222.92249258067929</v>
+        <v>200.40380893717281</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="2"/>
-        <v>222.92249258067929</v>
-      </c>
+        <v>200.40380893717281</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="5">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="11">
-        <f t="shared" si="0"/>
-        <v>987.76660251224882</v>
+        <f t="shared" si="6"/>
+        <v>739.98884542326925</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" si="1"/>
-        <v>229.35895713663101</v>
+        <v>206.19008917372182</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="4"/>
-        <v>222.92249258067929</v>
+        <v>200.40380893717281</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="5"/>
-        <v>236.17815379181354</v>
+        <v>212.32043953796611</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="2"/>
-        <v>236.17815379181354</v>
+        <v>212.32043953796611</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="11">
-        <f t="shared" si="0"/>
-        <v>1046.5022612023952</v>
+        <f t="shared" si="6"/>
+        <v>783.99087196349922</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="1"/>
-        <v>242.99735044699608</v>
+        <v>218.4507899022104</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" si="4"/>
-        <v>236.17815379181354</v>
+        <v>212.32043953796611</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="5"/>
-        <v>250.2220376363403</v>
+        <v>224.94566986861929</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="2"/>
-        <v>250.2220376363403</v>
+        <v>224.94566986861929</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="11">
-        <f t="shared" si="0"/>
-        <v>1108.730523907489</v>
+        <f t="shared" si="6"/>
+        <v>830.60939515989105</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="1"/>
-        <v>257.4467248256845</v>
+        <v>231.44054983502815</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" si="4"/>
-        <v>250.2220376363403</v>
+        <v>224.94566986861929</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" si="5"/>
-        <v>265.10101427108509</v>
+        <v>238.32163546173186</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="2"/>
-        <v>265.10101427108509</v>
+        <v>238.32163546173186</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="11">
-        <f t="shared" si="0"/>
-        <v>1174.6590716696307</v>
+        <f t="shared" si="6"/>
+        <v>880.00000000000068</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="1"/>
-        <v>272.75530371648568</v>
+        <v>245.20272108843557</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="4"/>
-        <v>265.10101427108509</v>
+        <v>238.32163546173186</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>280.86474089743149</v>
+        <v>252.49297735905435</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="2"/>
-        <v>280.86474089743149</v>
+        <v>252.49297735905435</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="11">
-        <f t="shared" si="0"/>
-        <v>1244.5079348883244</v>
+        <f t="shared" si="6"/>
+        <v>932.32752303618042</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="1"/>
-        <v>288.97417807837735</v>
+        <v>259.78323362967313</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" si="4"/>
-        <v>280.86474089743149</v>
+        <v>252.49297735905435</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>297.56582748761457</v>
+        <v>267.50699109681523</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="2"/>
-        <v>297.56582748761457</v>
+        <v>267.50699109681523</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="11">
-        <f t="shared" si="0"/>
-        <v>1318.5102276514808</v>
+        <f t="shared" si="6"/>
+        <v>987.76660251224894</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="1"/>
-        <v>306.15747689685179</v>
+        <v>275.23074856395726</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="4"/>
-        <v>297.56582748761457</v>
+        <v>267.50699109681523</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>315.2600123656124</v>
+        <v>283.41378455017627</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="2"/>
-        <v>315.2600123656124</v>
+        <v>283.41378455017627</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="11">
-        <f t="shared" si="0"/>
-        <v>1396.9129257320164</v>
+        <f t="shared" si="6"/>
+        <v>1046.5022612023954</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="1"/>
-        <v>324.362547834373</v>
+        <v>291.59682053639534</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" si="4"/>
-        <v>315.2600123656124</v>
+        <v>283.41378455017627</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>334.00634822862139</v>
+        <v>300.26644516360841</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="2"/>
-        <v>334.00634822862139</v>
+        <v>300.26644516360841</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="11">
-        <f t="shared" si="0"/>
-        <v>1479.9776908465385</v>
+        <f t="shared" si="6"/>
+        <v>1108.7305239074892</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="1"/>
-        <v>343.65014862286972</v>
+        <v>308.93606979082148</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" si="4"/>
-        <v>334.00634822862139</v>
+        <v>300.26644516360841</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>353.86739922994349</v>
+        <v>318.12121712530222</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="2"/>
-        <v>353.86739922994349</v>
+        <v>318.12121712530222</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="11">
-        <f t="shared" si="0"/>
-        <v>1567.9817439269982</v>
+        <f t="shared" si="6"/>
+        <v>1174.6590716696312</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="1"/>
-        <v>364.08464983701725</v>
+        <v>327.30636445978297</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="4"/>
-        <v>353.86739922994349</v>
+        <v>318.12121712530222</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="5"/>
-        <v>374.90944978103209</v>
+        <v>337.0376890769179</v>
       </c>
       <c r="G75" s="10">
         <f t="shared" si="2"/>
-        <v>374.90944978103209</v>
+        <v>337.0376890769179</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="11">
-        <f t="shared" si="0"/>
-        <v>1661.2187903197819</v>
+        <f t="shared" si="6"/>
+        <v>1244.5079348883246</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="1"/>
-        <v>385.73424972504688</v>
+        <v>346.76901369405289</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" si="4"/>
-        <v>374.90944978103209</v>
+        <v>337.0376890769179</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>397.20272576955301</v>
+        <v>357.07899298513757</v>
       </c>
       <c r="G76" s="10">
         <f t="shared" si="2"/>
-        <v>397.20272576955301</v>
+        <v>357.07899298513757</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="11">
-        <f t="shared" si="0"/>
-        <v>1760.0000000000007</v>
+        <f t="shared" si="6"/>
+        <v>1318.510227651481</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="1"/>
-        <v>408.67120181405909</v>
+        <v>367.3889722762222</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" si="4"/>
-        <v>397.20272576955301</v>
+        <v>357.07899298513757</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>420.82162893175712</v>
+        <v>378.31201483873485</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="2"/>
-        <v>420.82162893175712</v>
+        <v>378.31201483873485</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="11">
-        <f t="shared" si="0"/>
-        <v>1864.6550460723606</v>
+        <f t="shared" si="6"/>
+        <v>1396.9129257320164</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="1"/>
-        <v>432.97205604945515</v>
+        <v>389.23505740124756</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" si="4"/>
-        <v>420.82162893175712</v>
+        <v>378.31201483873485</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>445.84498516135864</v>
+        <v>400.80761787434562</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="2"/>
-        <v>445.84498516135864</v>
+        <v>400.80761787434562</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="11">
-        <f t="shared" si="0"/>
-        <v>1975.5332050244981</v>
+        <f t="shared" si="6"/>
+        <v>1479.9776908465385</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="1"/>
-        <v>458.71791427326212</v>
+        <v>412.38017834744363</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="4"/>
-        <v>445.84498516135864</v>
+        <v>400.80761787434562</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>472.35630758362714</v>
+        <v>424.64087907593228</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="2"/>
-        <v>472.35630758362714</v>
+        <v>424.64087907593228</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="11">
-        <f t="shared" si="0"/>
-        <v>2093.0045224047904</v>
+        <f t="shared" si="6"/>
+        <v>1567.9817439269987</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="1"/>
-        <v>485.99470089399216</v>
+        <v>436.90157980442086</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="4"/>
-        <v>472.35630758362714</v>
+        <v>424.64087907593228</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="5"/>
-        <v>500.44407527268061</v>
+        <v>449.89133973723858</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="2"/>
-        <v>500.44407527268061</v>
+        <v>449.89133973723858</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="11">
-        <f t="shared" ref="C81:C115" si="6">$B$6*POWER($B$11,B81)</f>
-        <v>2217.4610478149784</v>
+        <f t="shared" si="6"/>
+        <v>1661.2187903197821</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" ref="D81:D115" si="7">C81/$B$13</f>
-        <v>514.89344965136911</v>
+        <f t="shared" si="1"/>
+        <v>462.8810996700563</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" si="4"/>
-        <v>500.44407527268061</v>
+        <v>449.89133973723858</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>530.20202854217041</v>
+        <v>476.64327092346377</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="2"/>
-        <v>530.20202854217041</v>
+        <v>476.64327092346377</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="11">
-        <f t="shared" si="6"/>
-        <v>2349.3181433392624</v>
+        <f t="shared" ref="C82:C113" si="7">$B$6*POWER($B$12,B82)</f>
+        <v>1760.0000000000016</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="7"/>
-        <v>545.5106074329716</v>
+        <f t="shared" ref="D82:D116" si="8">C82/$B$14</f>
+        <v>490.40544217687119</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" si="4"/>
-        <v>530.20202854217041</v>
+        <v>476.64327092346377</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="5"/>
-        <v>561.7294817948632</v>
+        <v>504.98595471810881</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" ref="G82:G115" si="8">F82</f>
-        <v>561.7294817948632</v>
+        <f t="shared" si="2"/>
+        <v>504.98595471810881</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
-        <f t="shared" ref="B83:B115" si="9">B82+1</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="C83" s="11">
-        <f t="shared" si="6"/>
-        <v>2489.0158697766492</v>
+        <f t="shared" si="7"/>
+        <v>1864.6550460723615</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="7"/>
-        <v>577.94835615675481</v>
+        <f t="shared" si="8"/>
+        <v>519.5664672593465</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" ref="E83:E115" si="10">F82</f>
-        <v>561.7294817948632</v>
+        <f t="shared" si="4"/>
+        <v>504.98595471810881</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" ref="F83:F115" si="11">((D84-D83)/2)+D83</f>
-        <v>595.13165497522914</v>
+        <f t="shared" si="5"/>
+        <v>535.01398219363045</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="8"/>
-        <v>595.13165497522914</v>
+        <f t="shared" ref="G83:G116" si="9">F83</f>
+        <v>535.01398219363045</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
+        <f t="shared" ref="B84:B116" si="10">B83+1</f>
+        <v>66</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="7"/>
+        <v>1975.5332050244981</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="8"/>
+        <v>550.46149712791453</v>
+      </c>
+      <c r="E84" s="14">
+        <f t="shared" ref="E84:E116" si="11">F83</f>
+        <v>535.01398219363045</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" ref="F84:F116" si="12">((D85-D84)/2)+D84</f>
+        <v>566.82756910035266</v>
+      </c>
+      <c r="G84" s="10">
         <f t="shared" si="9"/>
-        <v>67</v>
-      </c>
-      <c r="C84" s="11">
-        <f t="shared" si="6"/>
-        <v>2637.0204553029616</v>
-      </c>
-      <c r="D84" s="6">
-        <f t="shared" si="7"/>
-        <v>612.31495379370358</v>
-      </c>
-      <c r="E84" s="14">
-        <f t="shared" si="10"/>
-        <v>595.13165497522914</v>
-      </c>
-      <c r="F84" s="15">
-        <f t="shared" si="11"/>
-        <v>630.52002473122479</v>
-      </c>
-      <c r="G84" s="10">
-        <f t="shared" si="8"/>
-        <v>630.52002473122479</v>
+        <v>566.82756910035266</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="5">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="C85" s="11">
+        <f t="shared" si="7"/>
+        <v>2093.0045224047913</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="8"/>
+        <v>583.1936410727908</v>
+      </c>
+      <c r="E85" s="14">
+        <f t="shared" si="11"/>
+        <v>566.82756910035266</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="12"/>
+        <v>600.53289032721693</v>
+      </c>
+      <c r="G85" s="10">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="C85" s="11">
-        <f t="shared" si="6"/>
-        <v>2793.8258514640333</v>
-      </c>
-      <c r="D85" s="6">
-        <f t="shared" si="7"/>
-        <v>648.72509566874612</v>
-      </c>
-      <c r="E85" s="14">
-        <f t="shared" si="10"/>
-        <v>630.52002473122479</v>
-      </c>
-      <c r="F85" s="15">
-        <f t="shared" si="11"/>
-        <v>668.01269645724278</v>
-      </c>
-      <c r="G85" s="10">
-        <f t="shared" si="8"/>
-        <v>668.01269645724278</v>
+        <v>600.53289032721693</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="5">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="7"/>
+        <v>2217.4610478149789</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="8"/>
+        <v>617.87213958164307</v>
+      </c>
+      <c r="E86" s="14">
+        <f t="shared" si="11"/>
+        <v>600.53289032721693</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="12"/>
+        <v>636.24243425060445</v>
+      </c>
+      <c r="G86" s="10">
         <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="C86" s="11">
-        <f t="shared" si="6"/>
-        <v>2959.9553816930775</v>
-      </c>
-      <c r="D86" s="6">
-        <f t="shared" si="7"/>
-        <v>687.30029724573956</v>
-      </c>
-      <c r="E86" s="14">
-        <f t="shared" si="10"/>
-        <v>668.01269645724278</v>
-      </c>
-      <c r="F86" s="15">
-        <f t="shared" si="11"/>
-        <v>707.73479845988709</v>
-      </c>
-      <c r="G86" s="10">
-        <f t="shared" si="8"/>
-        <v>707.73479845988709</v>
+        <v>636.24243425060445</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="5">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="C87" s="11">
+        <f t="shared" si="7"/>
+        <v>2349.3181433392624</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="8"/>
+        <v>654.61272891956594</v>
+      </c>
+      <c r="E87" s="14">
+        <f t="shared" si="11"/>
+        <v>636.24243425060445</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="12"/>
+        <v>674.07537815383591</v>
+      </c>
+      <c r="G87" s="10">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="C87" s="11">
-        <f t="shared" si="6"/>
-        <v>3135.9634878539969</v>
-      </c>
-      <c r="D87" s="6">
-        <f t="shared" si="7"/>
-        <v>728.16929967403462</v>
-      </c>
-      <c r="E87" s="14">
-        <f t="shared" si="10"/>
-        <v>707.73479845988709</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" si="11"/>
-        <v>749.81889956206419</v>
-      </c>
-      <c r="G87" s="10">
-        <f t="shared" si="8"/>
-        <v>749.81889956206419</v>
+        <v>674.07537815383591</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="5">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="C88" s="11">
+        <f t="shared" si="7"/>
+        <v>2489.0158697766497</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="8"/>
+        <v>693.53802738810589</v>
+      </c>
+      <c r="E88" s="14">
+        <f t="shared" si="11"/>
+        <v>674.07537815383591</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="12"/>
+        <v>714.15798597027515</v>
+      </c>
+      <c r="G88" s="10">
         <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-      <c r="C88" s="11">
-        <f t="shared" si="6"/>
-        <v>3322.4375806395637</v>
-      </c>
-      <c r="D88" s="6">
-        <f t="shared" si="7"/>
-        <v>771.46849945009376</v>
-      </c>
-      <c r="E88" s="14">
-        <f t="shared" si="10"/>
-        <v>749.81889956206419</v>
-      </c>
-      <c r="F88" s="15">
-        <f t="shared" si="11"/>
-        <v>794.40545153910625</v>
-      </c>
-      <c r="G88" s="10">
-        <f t="shared" si="8"/>
-        <v>794.40545153910625</v>
+        <v>714.15798597027515</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="5">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" si="7"/>
+        <v>2637.0204553029621</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="8"/>
+        <v>734.77794455244441</v>
+      </c>
+      <c r="E89" s="14">
+        <f t="shared" si="11"/>
+        <v>714.15798597027515</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="12"/>
+        <v>756.62402967746993</v>
+      </c>
+      <c r="G89" s="10">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="C89" s="11">
-        <f t="shared" si="6"/>
-        <v>3520.0000000000032</v>
-      </c>
-      <c r="D89" s="6">
-        <f t="shared" si="7"/>
-        <v>817.34240362811863</v>
-      </c>
-      <c r="E89" s="14">
-        <f t="shared" si="10"/>
-        <v>794.40545153910625</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="11"/>
-        <v>841.64325786351469</v>
-      </c>
-      <c r="G89" s="10">
-        <f t="shared" si="8"/>
-        <v>841.64325786351469</v>
+        <v>756.62402967746993</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="5">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="C90" s="11">
+        <f t="shared" si="7"/>
+        <v>2793.8258514640338</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="8"/>
+        <v>778.47011480249546</v>
+      </c>
+      <c r="E90" s="14">
+        <f t="shared" si="11"/>
+        <v>756.62402967746993</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="12"/>
+        <v>801.61523574869159</v>
+      </c>
+      <c r="G90" s="10">
         <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="C90" s="11">
-        <f t="shared" si="6"/>
-        <v>3729.3100921447226</v>
-      </c>
-      <c r="D90" s="6">
-        <f t="shared" si="7"/>
-        <v>865.94411209891064</v>
-      </c>
-      <c r="E90" s="14">
-        <f t="shared" si="10"/>
-        <v>841.64325786351469</v>
-      </c>
-      <c r="F90" s="15">
-        <f t="shared" si="11"/>
-        <v>891.6899703227175</v>
-      </c>
-      <c r="G90" s="10">
-        <f t="shared" si="8"/>
-        <v>891.6899703227175</v>
+        <v>801.61523574869159</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="5">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" si="7"/>
+        <v>2959.9553816930784</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="8"/>
+        <v>824.76035669488772</v>
+      </c>
+      <c r="E91" s="14">
+        <f t="shared" si="11"/>
+        <v>801.61523574869159</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="12"/>
+        <v>849.28175815186478</v>
+      </c>
+      <c r="G91" s="10">
         <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="C91" s="11">
-        <f t="shared" si="6"/>
-        <v>3951.0664100489962</v>
-      </c>
-      <c r="D91" s="6">
-        <f t="shared" si="7"/>
-        <v>917.43582854652425</v>
-      </c>
-      <c r="E91" s="14">
-        <f t="shared" si="10"/>
-        <v>891.6899703227175</v>
-      </c>
-      <c r="F91" s="15">
-        <f t="shared" si="11"/>
-        <v>944.7126151672544</v>
-      </c>
-      <c r="G91" s="10">
-        <f t="shared" si="8"/>
-        <v>944.7126151672544</v>
+        <v>849.28175815186478</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="5">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="C92" s="11">
+        <f t="shared" si="7"/>
+        <v>3135.9634878539973</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="8"/>
+        <v>873.80315960884172</v>
+      </c>
+      <c r="E92" s="14">
+        <f t="shared" si="11"/>
+        <v>849.28175815186478</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="12"/>
+        <v>899.78267947447728</v>
+      </c>
+      <c r="G92" s="10">
         <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="C92" s="11">
-        <f t="shared" si="6"/>
-        <v>4186.0090448095825</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="7"/>
-        <v>971.98940178798466</v>
-      </c>
-      <c r="E92" s="14">
-        <f t="shared" si="10"/>
-        <v>944.7126151672544</v>
-      </c>
-      <c r="F92" s="15">
-        <f t="shared" si="11"/>
-        <v>1000.8881505453614</v>
-      </c>
-      <c r="G92" s="10">
-        <f t="shared" si="8"/>
-        <v>1000.8881505453614</v>
+        <v>899.78267947447728</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="5">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" si="7"/>
+        <v>3322.4375806395651</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="8"/>
+        <v>925.76219934011283</v>
+      </c>
+      <c r="E93" s="14">
+        <f t="shared" si="11"/>
+        <v>899.78267947447728</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="12"/>
+        <v>953.28654184692755</v>
+      </c>
+      <c r="G93" s="10">
         <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="C93" s="11">
-        <f t="shared" si="6"/>
-        <v>4434.9220956299569</v>
-      </c>
-      <c r="D93" s="6">
-        <f t="shared" si="7"/>
-        <v>1029.7868993027382</v>
-      </c>
-      <c r="E93" s="14">
-        <f t="shared" si="10"/>
-        <v>1000.8881505453614</v>
-      </c>
-      <c r="F93" s="15">
-        <f t="shared" si="11"/>
-        <v>1060.4040570843408</v>
-      </c>
-      <c r="G93" s="10">
-        <f t="shared" si="8"/>
-        <v>1060.4040570843408</v>
+        <v>953.28654184692755</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="5">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="C94" s="11">
+        <f t="shared" si="7"/>
+        <v>3520.0000000000032</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="8"/>
+        <v>980.81088435374238</v>
+      </c>
+      <c r="E94" s="14">
+        <f t="shared" si="11"/>
+        <v>953.28654184692755</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="12"/>
+        <v>1009.9719094362176</v>
+      </c>
+      <c r="G94" s="10">
         <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="C94" s="11">
-        <f t="shared" si="6"/>
-        <v>4698.6362866785248</v>
-      </c>
-      <c r="D94" s="6">
-        <f t="shared" si="7"/>
-        <v>1091.0212148659432</v>
-      </c>
-      <c r="E94" s="14">
-        <f t="shared" si="10"/>
-        <v>1060.4040570843408</v>
-      </c>
-      <c r="F94" s="15">
-        <f t="shared" si="11"/>
-        <v>1123.4589635897264</v>
-      </c>
-      <c r="G94" s="10">
-        <f t="shared" si="8"/>
-        <v>1123.4589635897264</v>
+        <v>1009.9719094362176</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="5">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="7"/>
+        <v>3729.3100921447231</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="8"/>
+        <v>1039.132934518693</v>
+      </c>
+      <c r="E95" s="14">
+        <f t="shared" si="11"/>
+        <v>1009.9719094362176</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="12"/>
+        <v>1070.0279643872614</v>
+      </c>
+      <c r="G95" s="10">
         <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="C95" s="11">
-        <f t="shared" si="6"/>
-        <v>4978.0317395532993</v>
-      </c>
-      <c r="D95" s="6">
-        <f t="shared" si="7"/>
-        <v>1155.8967123135099</v>
-      </c>
-      <c r="E95" s="14">
-        <f t="shared" si="10"/>
-        <v>1123.4589635897264</v>
-      </c>
-      <c r="F95" s="15">
-        <f t="shared" si="11"/>
-        <v>1190.2633099504585</v>
-      </c>
-      <c r="G95" s="10">
-        <f t="shared" si="8"/>
-        <v>1190.2633099504585</v>
+        <v>1070.0279643872614</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="5">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" si="7"/>
+        <v>3951.0664100489976</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="8"/>
+        <v>1100.9229942558295</v>
+      </c>
+      <c r="E96" s="14">
+        <f t="shared" si="11"/>
+        <v>1070.0279643872614</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="12"/>
+        <v>1133.6551382007056</v>
+      </c>
+      <c r="G96" s="10">
         <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="C96" s="11">
-        <f t="shared" si="6"/>
-        <v>5274.0409106059233</v>
-      </c>
-      <c r="D96" s="6">
-        <f t="shared" si="7"/>
-        <v>1224.6299075874072</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="10"/>
-        <v>1190.2633099504585</v>
-      </c>
-      <c r="F96" s="15">
-        <f t="shared" si="11"/>
-        <v>1261.0400494624496</v>
-      </c>
-      <c r="G96" s="10">
-        <f t="shared" si="8"/>
-        <v>1261.0400494624496</v>
+        <v>1133.6551382007056</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="5">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" si="7"/>
+        <v>4186.0090448095825</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" si="8"/>
+        <v>1166.3872821455816</v>
+      </c>
+      <c r="E97" s="14">
+        <f t="shared" si="11"/>
+        <v>1133.6551382007056</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="12"/>
+        <v>1201.0657806544341</v>
+      </c>
+      <c r="G97" s="10">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="C97" s="11">
-        <f t="shared" si="6"/>
-        <v>5587.6517029280676</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="7"/>
-        <v>1297.4501913374922</v>
-      </c>
-      <c r="E97" s="14">
-        <f t="shared" si="10"/>
-        <v>1261.0400494624496</v>
-      </c>
-      <c r="F97" s="15">
-        <f t="shared" si="11"/>
-        <v>1336.0253929144858</v>
-      </c>
-      <c r="G97" s="10">
-        <f t="shared" si="8"/>
-        <v>1336.0253929144858</v>
-      </c>
-      <c r="J97" t="s">
-        <v>30</v>
+        <v>1201.0657806544341</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="5">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C98" s="11">
+        <f t="shared" si="7"/>
+        <v>4434.9220956299587</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="8"/>
+        <v>1235.7442791632864</v>
+      </c>
+      <c r="E98" s="14">
+        <f t="shared" si="11"/>
+        <v>1201.0657806544341</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="12"/>
+        <v>1272.4848685012093</v>
+      </c>
+      <c r="G98" s="10">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="C98" s="11">
-        <f t="shared" si="6"/>
-        <v>5919.9107633861558</v>
-      </c>
-      <c r="D98" s="6">
-        <f t="shared" si="7"/>
-        <v>1374.6005944914793</v>
-      </c>
-      <c r="E98" s="14">
-        <f t="shared" si="10"/>
-        <v>1336.0253929144858</v>
-      </c>
-      <c r="F98" s="15">
-        <f t="shared" si="11"/>
-        <v>1415.4695969197744</v>
-      </c>
-      <c r="G98" s="10">
-        <f t="shared" si="8"/>
-        <v>1415.4695969197744</v>
+        <v>1272.4848685012093</v>
+      </c>
+      <c r="J98" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="5">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="C99" s="11">
+        <f t="shared" si="7"/>
+        <v>4698.6362866785257</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="8"/>
+        <v>1309.2254578391321</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" si="11"/>
+        <v>1272.4848685012093</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="12"/>
+        <v>1348.1507563076721</v>
+      </c>
+      <c r="G99" s="10">
         <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="C99" s="11">
-        <f t="shared" si="6"/>
-        <v>6271.9269757079946</v>
-      </c>
-      <c r="D99" s="6">
-        <f t="shared" si="7"/>
-        <v>1456.3385993480695</v>
-      </c>
-      <c r="E99" s="14">
-        <f t="shared" si="10"/>
-        <v>1415.4695969197744</v>
-      </c>
-      <c r="F99" s="15">
-        <f t="shared" si="11"/>
-        <v>1499.6377991241286</v>
-      </c>
-      <c r="G99" s="10">
-        <f t="shared" si="8"/>
-        <v>1499.6377991241286</v>
+        <v>1348.1507563076721</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="5">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="C100" s="11">
+        <f t="shared" si="7"/>
+        <v>4978.0317395533002</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="8"/>
+        <v>1387.076054776212</v>
+      </c>
+      <c r="E100" s="14">
+        <f t="shared" si="11"/>
+        <v>1348.1507563076721</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="12"/>
+        <v>1428.3159719405505</v>
+      </c>
+      <c r="G100" s="10">
         <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="C100" s="11">
-        <f t="shared" si="6"/>
-        <v>6644.8751612791293</v>
-      </c>
-      <c r="D100" s="6">
-        <f t="shared" si="7"/>
-        <v>1542.9369989001877</v>
-      </c>
-      <c r="E100" s="14">
-        <f t="shared" si="10"/>
-        <v>1499.6377991241286</v>
-      </c>
-      <c r="F100" s="15">
-        <f t="shared" si="11"/>
-        <v>1588.8109030782125</v>
-      </c>
-      <c r="G100" s="10">
-        <f t="shared" si="8"/>
-        <v>1588.8109030782125</v>
+        <v>1428.3159719405505</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="5">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="7"/>
+        <v>5274.0409106059251</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="8"/>
+        <v>1469.555889104889</v>
+      </c>
+      <c r="E101" s="14">
+        <f t="shared" si="11"/>
+        <v>1428.3159719405505</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="12"/>
+        <v>1513.2480593549399</v>
+      </c>
+      <c r="G101" s="10">
         <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="C101" s="11">
-        <f t="shared" si="6"/>
-        <v>7040.0000000000064</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" si="7"/>
-        <v>1634.6848072562373</v>
-      </c>
-      <c r="E101" s="14">
-        <f t="shared" si="10"/>
-        <v>1588.8109030782125</v>
-      </c>
-      <c r="F101" s="15">
-        <f t="shared" si="11"/>
-        <v>1683.2865157270294</v>
-      </c>
-      <c r="G101" s="10">
-        <f t="shared" si="8"/>
-        <v>1683.2865157270294</v>
+        <v>1513.2480593549399</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="5">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="C102" s="11">
+        <f t="shared" si="7"/>
+        <v>5587.6517029280676</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="8"/>
+        <v>1556.9402296049909</v>
+      </c>
+      <c r="E102" s="14">
+        <f t="shared" si="11"/>
+        <v>1513.2480593549399</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="12"/>
+        <v>1603.2304714973832</v>
+      </c>
+      <c r="G102" s="10">
         <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="C102" s="11">
-        <f t="shared" si="6"/>
-        <v>7458.6201842894452</v>
-      </c>
-      <c r="D102" s="6">
-        <f t="shared" si="7"/>
-        <v>1731.8882241978213</v>
-      </c>
-      <c r="E102" s="14">
-        <f t="shared" si="10"/>
-        <v>1683.2865157270294</v>
-      </c>
-      <c r="F102" s="15">
-        <f t="shared" si="11"/>
-        <v>1783.379940645435</v>
-      </c>
-      <c r="G102" s="10">
-        <f t="shared" si="8"/>
-        <v>1783.379940645435</v>
+        <v>1603.2304714973832</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="5">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="C103" s="11">
+        <f t="shared" si="7"/>
+        <v>5919.9107633861568</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="8"/>
+        <v>1649.5207133897754</v>
+      </c>
+      <c r="E103" s="14">
+        <f t="shared" si="11"/>
+        <v>1603.2304714973832</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="12"/>
+        <v>1698.5635163037296</v>
+      </c>
+      <c r="G103" s="10">
         <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="C103" s="11">
-        <f t="shared" si="6"/>
-        <v>7902.1328200979942</v>
-      </c>
-      <c r="D103" s="6">
-        <f t="shared" si="7"/>
-        <v>1834.871657093049</v>
-      </c>
-      <c r="E103" s="14">
-        <f t="shared" si="10"/>
-        <v>1783.379940645435</v>
-      </c>
-      <c r="F103" s="15">
-        <f t="shared" si="11"/>
-        <v>1889.4252303345093</v>
-      </c>
-      <c r="G103" s="10">
-        <f t="shared" si="8"/>
-        <v>1889.4252303345093</v>
+        <v>1698.5635163037296</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="5">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="C104" s="11">
+        <f t="shared" si="7"/>
+        <v>6271.9269757079965</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="8"/>
+        <v>1747.6063192176839</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="11"/>
+        <v>1698.5635163037296</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="12"/>
+        <v>1799.5653589489548</v>
+      </c>
+      <c r="G104" s="10">
         <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="C104" s="11">
-        <f t="shared" si="6"/>
-        <v>8372.018089619165</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="7"/>
-        <v>1943.9788035759693</v>
-      </c>
-      <c r="E104" s="14">
-        <f t="shared" si="10"/>
-        <v>1889.4252303345093</v>
-      </c>
-      <c r="F104" s="15">
-        <f t="shared" si="11"/>
-        <v>2001.7763010907231</v>
-      </c>
-      <c r="G104" s="10">
-        <f t="shared" si="8"/>
-        <v>2001.7763010907231</v>
+        <v>1799.5653589489548</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="5">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="C105" s="11">
+        <f t="shared" si="7"/>
+        <v>6644.8751612791302</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="8"/>
+        <v>1851.5243986802257</v>
+      </c>
+      <c r="E105" s="14">
+        <f t="shared" si="11"/>
+        <v>1799.5653589489548</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="12"/>
+        <v>1906.5730836938553</v>
+      </c>
+      <c r="G105" s="10">
         <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="C105" s="11">
-        <f t="shared" si="6"/>
-        <v>8869.8441912599155</v>
-      </c>
-      <c r="D105" s="6">
-        <f t="shared" si="7"/>
-        <v>2059.5737986054769</v>
-      </c>
-      <c r="E105" s="14">
-        <f t="shared" si="10"/>
-        <v>2001.7763010907231</v>
-      </c>
-      <c r="F105" s="15">
-        <f t="shared" si="11"/>
-        <v>2120.8081141686816</v>
-      </c>
-      <c r="G105" s="10">
-        <f t="shared" si="8"/>
-        <v>2120.8081141686816</v>
+        <v>1906.5730836938553</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="5">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="C106" s="11">
+        <f t="shared" si="7"/>
+        <v>7040.0000000000073</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="8"/>
+        <v>1961.621768707485</v>
+      </c>
+      <c r="E106" s="14">
+        <f t="shared" si="11"/>
+        <v>1906.5730836938553</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>2019.9438188724355</v>
+      </c>
+      <c r="G106" s="10">
         <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="C106" s="11">
-        <f t="shared" si="6"/>
-        <v>9397.2725733570514</v>
-      </c>
-      <c r="D106" s="6">
-        <f t="shared" si="7"/>
-        <v>2182.0424297318868</v>
-      </c>
-      <c r="E106" s="14">
-        <f t="shared" si="10"/>
-        <v>2120.8081141686816</v>
-      </c>
-      <c r="F106" s="15">
-        <f t="shared" si="11"/>
-        <v>2246.9179271794533</v>
-      </c>
-      <c r="G106" s="10">
-        <f t="shared" si="8"/>
-        <v>2246.9179271794533</v>
+        <v>2019.9438188724355</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="5">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="C107" s="11">
+        <f t="shared" si="7"/>
+        <v>7458.620184289447</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="8"/>
+        <v>2078.265869037386</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="11"/>
+        <v>2019.9438188724355</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="12"/>
+        <v>2140.0559287745227</v>
+      </c>
+      <c r="G107" s="10">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="C107" s="11">
-        <f t="shared" si="6"/>
-        <v>9956.0634791065986</v>
-      </c>
-      <c r="D107" s="6">
-        <f t="shared" si="7"/>
-        <v>2311.7934246270197</v>
-      </c>
-      <c r="E107" s="14">
-        <f t="shared" si="10"/>
-        <v>2246.9179271794533</v>
-      </c>
-      <c r="F107" s="15">
-        <f t="shared" si="11"/>
-        <v>2380.5266199009175</v>
-      </c>
-      <c r="G107" s="10">
-        <f t="shared" si="8"/>
-        <v>2380.5266199009175</v>
+        <v>2140.0559287745227</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B108" s="5">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="C108" s="11">
+        <f t="shared" si="7"/>
+        <v>7902.1328200979951</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="8"/>
+        <v>2201.845988511659</v>
+      </c>
+      <c r="E108" s="14">
+        <f t="shared" si="11"/>
+        <v>2140.0559287745227</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="12"/>
+        <v>2267.3102764014111</v>
+      </c>
+      <c r="G108" s="10">
         <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
-      <c r="C108" s="11">
-        <f t="shared" si="6"/>
-        <v>10548.08182121185</v>
-      </c>
-      <c r="D108" s="6">
-        <f t="shared" si="7"/>
-        <v>2449.2598151748152</v>
-      </c>
-      <c r="E108" s="14">
-        <f t="shared" si="10"/>
-        <v>2380.5266199009175</v>
-      </c>
-      <c r="F108" s="15">
-        <f t="shared" si="11"/>
-        <v>2522.0800989249001</v>
-      </c>
-      <c r="G108" s="10">
-        <f t="shared" si="8"/>
-        <v>2522.0800989249001</v>
+        <v>2267.3102764014111</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="5">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="C109" s="11">
+        <f t="shared" si="7"/>
+        <v>8372.0180896191669</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="8"/>
+        <v>2332.7745642911636</v>
+      </c>
+      <c r="E109" s="14">
+        <f t="shared" si="11"/>
+        <v>2267.3102764014111</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="12"/>
+        <v>2402.1315613088682</v>
+      </c>
+      <c r="G109" s="10">
         <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="C109" s="11">
-        <f t="shared" si="6"/>
-        <v>11175.303405856135</v>
-      </c>
-      <c r="D109" s="6">
-        <f t="shared" si="7"/>
-        <v>2594.9003826749845</v>
-      </c>
-      <c r="E109" s="14">
-        <f t="shared" si="10"/>
-        <v>2522.0800989249001</v>
-      </c>
-      <c r="F109" s="15">
-        <f t="shared" si="11"/>
-        <v>2672.0507858289716</v>
-      </c>
-      <c r="G109" s="10">
-        <f t="shared" si="8"/>
-        <v>2672.0507858289716</v>
+        <v>2402.1315613088682</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B110" s="5">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="C110" s="11">
+        <f t="shared" si="7"/>
+        <v>8869.8441912599174</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="8"/>
+        <v>2471.4885583265727</v>
+      </c>
+      <c r="E110" s="14">
+        <f t="shared" si="11"/>
+        <v>2402.1315613088682</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="12"/>
+        <v>2544.9697370024187</v>
+      </c>
+      <c r="G110" s="10">
         <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
-      <c r="C110" s="11">
-        <f t="shared" si="6"/>
-        <v>11839.821526772312</v>
-      </c>
-      <c r="D110" s="6">
-        <f t="shared" si="7"/>
-        <v>2749.2011889829587</v>
-      </c>
-      <c r="E110" s="14">
-        <f t="shared" si="10"/>
-        <v>2672.0507858289716</v>
-      </c>
-      <c r="F110" s="15">
-        <f t="shared" si="11"/>
-        <v>2830.9391938395493</v>
-      </c>
-      <c r="G110" s="10">
-        <f t="shared" si="8"/>
-        <v>2830.9391938395493</v>
+        <v>2544.9697370024187</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B111" s="5">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="C111" s="11">
+        <f t="shared" si="7"/>
+        <v>9397.2725733570514</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="8"/>
+        <v>2618.4509156782642</v>
+      </c>
+      <c r="E111" s="14">
+        <f t="shared" si="11"/>
+        <v>2544.9697370024187</v>
+      </c>
+      <c r="F111" s="15">
+        <f t="shared" si="12"/>
+        <v>2696.3015126153441</v>
+      </c>
+      <c r="G111" s="10">
         <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="C111" s="11">
-        <f t="shared" si="6"/>
-        <v>12543.853951415991</v>
-      </c>
-      <c r="D111" s="6">
-        <f t="shared" si="7"/>
-        <v>2912.6771986961394</v>
-      </c>
-      <c r="E111" s="14">
-        <f t="shared" si="10"/>
-        <v>2830.9391938395493</v>
-      </c>
-      <c r="F111" s="15">
-        <f t="shared" si="11"/>
-        <v>2999.2755982482577</v>
-      </c>
-      <c r="G111" s="10">
-        <f t="shared" si="8"/>
-        <v>2999.2755982482577</v>
+        <v>2696.3015126153441</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="5">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="C112" s="11">
+        <f t="shared" si="7"/>
+        <v>9956.0634791066022</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="8"/>
+        <v>2774.1521095524245</v>
+      </c>
+      <c r="E112" s="14">
+        <f t="shared" si="11"/>
+        <v>2696.3015126153441</v>
+      </c>
+      <c r="F112" s="15">
+        <f t="shared" si="12"/>
+        <v>2856.6319438811015</v>
+      </c>
+      <c r="G112" s="10">
         <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
-      <c r="C112" s="11">
-        <f t="shared" si="6"/>
-        <v>13289.750322558259</v>
-      </c>
-      <c r="D112" s="6">
-        <f t="shared" si="7"/>
-        <v>3085.8739978003755</v>
-      </c>
-      <c r="E112" s="14">
-        <f t="shared" si="10"/>
-        <v>2999.2755982482577</v>
-      </c>
-      <c r="F112" s="15">
-        <f t="shared" si="11"/>
-        <v>3177.6218061564255</v>
-      </c>
-      <c r="G112" s="10">
-        <f t="shared" si="8"/>
-        <v>3177.6218061564255</v>
+        <v>2856.6319438811015</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="5">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="C113" s="11">
+        <f t="shared" si="7"/>
+        <v>10548.08182121185</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="8"/>
+        <v>2939.1117782097781</v>
+      </c>
+      <c r="E113" s="14">
+        <f t="shared" si="11"/>
+        <v>2856.6319438811015</v>
+      </c>
+      <c r="F113" s="15">
+        <f t="shared" si="12"/>
+        <v>3026.4961187098806</v>
+      </c>
+      <c r="G113" s="10">
         <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="C113" s="11">
-        <f t="shared" si="6"/>
-        <v>14080.000000000016</v>
-      </c>
-      <c r="D113" s="6">
-        <f t="shared" si="7"/>
-        <v>3269.3696145124754</v>
-      </c>
-      <c r="E113" s="14">
-        <f t="shared" si="10"/>
-        <v>3177.6218061564255</v>
-      </c>
-      <c r="F113" s="15">
-        <f t="shared" si="11"/>
-        <v>3366.5730314540597</v>
-      </c>
-      <c r="G113" s="10">
-        <f t="shared" si="8"/>
-        <v>3366.5730314540597</v>
+        <v>3026.4961187098806</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="5">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="C114" s="11">
+        <f t="shared" ref="C114:C116" si="13">$B$6*POWER($B$12,B114)</f>
+        <v>11175.303405856139</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="8"/>
+        <v>3113.8804592099827</v>
+      </c>
+      <c r="E114" s="14">
+        <f t="shared" si="11"/>
+        <v>3026.4961187098806</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="12"/>
+        <v>3206.4609429947668</v>
+      </c>
+      <c r="G114" s="10">
         <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="C114" s="11">
-        <f t="shared" si="6"/>
-        <v>14917.240368578894</v>
-      </c>
-      <c r="D114" s="6">
-        <f t="shared" si="7"/>
-        <v>3463.7764483956435</v>
-      </c>
-      <c r="E114" s="14">
-        <f t="shared" si="10"/>
-        <v>3366.5730314540597</v>
-      </c>
-      <c r="F114" s="15">
-        <f t="shared" si="11"/>
-        <v>3566.7598812908709</v>
-      </c>
-      <c r="G114" s="10">
-        <f t="shared" si="8"/>
-        <v>3566.7598812908709</v>
+        <v>3206.4609429947668</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="5">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="C115" s="11">
+        <f t="shared" si="13"/>
+        <v>11839.821526772315</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" si="8"/>
+        <v>3299.0414267795513</v>
+      </c>
+      <c r="E115" s="14">
+        <f t="shared" si="11"/>
+        <v>3206.4609429947668</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="12"/>
+        <v>3397.1270326074596</v>
+      </c>
+      <c r="G115" s="10">
         <f t="shared" si="9"/>
+        <v>3397.1270326074596</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5">
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="C115" s="11">
-        <f t="shared" si="6"/>
-        <v>15804.265640195988</v>
-      </c>
-      <c r="D115" s="6">
-        <f t="shared" si="7"/>
-        <v>3669.7433141860979</v>
-      </c>
-      <c r="E115" s="14">
-        <f t="shared" si="10"/>
-        <v>3566.7598812908709</v>
-      </c>
-      <c r="F115" s="15">
+      <c r="C116" s="11">
+        <f t="shared" si="13"/>
+        <v>12543.853951415993</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="8"/>
+        <v>3495.2126384353678</v>
+      </c>
+      <c r="E116" s="14">
         <f t="shared" si="11"/>
-        <v>1834.871657093049</v>
-      </c>
-      <c r="G115" s="10">
-        <f t="shared" si="8"/>
-        <v>1834.871657093049</v>
+        <v>3397.1270326074596</v>
+      </c>
+      <c r="F116" s="15">
+        <f t="shared" si="12"/>
+        <v>1747.6063192176839</v>
+      </c>
+      <c r="G116" s="10">
+        <f t="shared" si="9"/>
+        <v>1747.6063192176839</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:F17">
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>$B$17&lt;$B$9</formula>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F45">
-    <cfRule type="expression" dxfId="15" priority="7">
-      <formula>$B18&lt;$B$9</formula>
+  <conditionalFormatting sqref="B19:F46">
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F74">
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>$B46&lt;$B$9</formula>
+  <conditionalFormatting sqref="B47:F75">
+    <cfRule type="expression" dxfId="13" priority="6">
+      <formula>$B47&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:F80">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>$B75&lt;$B$9</formula>
+  <conditionalFormatting sqref="B76:F81">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$B76&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:F98">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>$B83&lt;$B$9</formula>
+  <conditionalFormatting sqref="B84:F99">
+    <cfRule type="expression" dxfId="11" priority="3">
+      <formula>$B84&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:F82">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>$B81&lt;$B$9</formula>
+  <conditionalFormatting sqref="B82:F83">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$B82&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:F106">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>$B99&lt;$B$9</formula>
+  <conditionalFormatting sqref="B100:F107">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$B100&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107:F115">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>$B107&lt;$B$9</formula>
+  <conditionalFormatting sqref="B108:F116">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$B108&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,10 +3638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,12 +3666,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
+        <f>44100/B4</f>
         <v>44100</v>
       </c>
       <c r="C5" t="s">
@@ -3673,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>4.25</v>
+        <v>5.25</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
@@ -3684,7 +3700,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -3694,7 +3710,7 @@
       </c>
       <c r="K6" s="13">
         <f>POWER(2,K5)</f>
-        <v>19.027313840043536</v>
+        <v>38.054627680087073</v>
       </c>
       <c r="L6" t="s">
         <v>26</v>
@@ -3745,7 +3761,7 @@
       </c>
       <c r="B9" s="4">
         <f>K9</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -3758,1051 +3774,1036 @@
       </c>
       <c r="K9">
         <f>(K5*K8)+1</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <f>1*B8/B5</f>
+        <v>4.6439909297052155E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B12" s="12">
         <f>POWER(B7/B6,1/(B9-1))</f>
         <v>1.0594630943592953</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>B5/2</f>
         <v>22050</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f>B5/B8</f>
         <v>21.533203125</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f>B8/2-1</f>
         <v>1023</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="10">
-        <f>G17-(G18-G17)</f>
-        <v>39.579827270215546</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" ref="C17:C80" si="0">$B$6*POWER($B$11,B17)</f>
-        <v>880</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:D80" si="1">C17/$B$13</f>
-        <v>40.867120181405895</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <f>((D18-D17)/2)+D17</f>
-        <v>42.082162893175692</v>
-      </c>
       <c r="G17" s="10">
-        <f>F17</f>
-        <v>42.082162893175692</v>
+        <f>G18-(G19-G18)</f>
+        <v>19.789913635107773</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <f>B17+1</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" ref="C18:C49" si="0">$B$6*POWER($B$12,B18)</f>
+        <v>440</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D81" si="1">C18/$B$14</f>
+        <v>20.433560090702947</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <f>((D19-D18)/2)+D18</f>
+        <v>21.041081446587846</v>
+      </c>
+      <c r="G18" s="10">
+        <f>F18</f>
+        <v>21.041081446587846</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5">
+        <f>B18+1</f>
         <v>1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
+        <v>466.16376151808993</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>21.648602802472748</v>
+      </c>
+      <c r="E19" s="14">
+        <f>F18</f>
+        <v>21.041081446587846</v>
+      </c>
+      <c r="F19" s="15">
+        <f>((D20-D19)/2)+D19</f>
+        <v>22.292249258067919</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" ref="G19:G82" si="2">F19</f>
+        <v>22.292249258067919</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <f t="shared" ref="B20:B83" si="3">B19+1</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="0"/>
+        <v>493.88330125612413</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="1"/>
+        <v>22.93589571366309</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" ref="E20:E83" si="4">F19</f>
+        <v>22.292249258067919</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" ref="F20:F83" si="5">((D21-D20)/2)+D20</f>
+        <v>23.617815379181344</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="2"/>
+        <v>23.617815379181344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="5">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>523.25113060119736</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>24.299735044699595</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="4"/>
+        <v>23.617815379181344</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="5"/>
+        <v>25.022203763634018</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="2"/>
+        <v>25.022203763634018</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="0"/>
+        <v>554.36526195374415</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>25.744672482568436</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="4"/>
+        <v>25.022203763634018</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="5"/>
+        <v>26.510101427108495</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="2"/>
+        <v>26.510101427108495</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="0"/>
+        <v>587.32953583481515</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>27.275530371648557</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="4"/>
+        <v>26.510101427108495</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="5"/>
+        <v>28.086474089743138</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>28.086474089743138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="0"/>
+        <v>622.25396744416184</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>28.897417807837719</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="4"/>
+        <v>28.086474089743138</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="5"/>
+        <v>29.756582748761438</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="2"/>
+        <v>29.756582748761438</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>659.25511382573995</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>30.615747689685158</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="4"/>
+        <v>29.756582748761438</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="5"/>
+        <v>31.526001236561218</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="2"/>
+        <v>31.526001236561218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>698.45646286600777</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>32.436254783437278</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="4"/>
+        <v>31.526001236561218</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="5"/>
+        <v>33.400634822862116</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="2"/>
+        <v>33.400634822862116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="0"/>
+        <v>739.98884542326891</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>34.365014862286955</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="4"/>
+        <v>33.400634822862116</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="5"/>
+        <v>35.38673992299433</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="2"/>
+        <v>35.38673992299433</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="0"/>
+        <v>783.99087196349865</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>36.408464983701705</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="4"/>
+        <v>35.38673992299433</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="5"/>
+        <v>37.490944978103187</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="2"/>
+        <v>37.490944978103187</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="0"/>
+        <v>830.60939515989048</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>38.573424972504668</v>
+      </c>
+      <c r="E29" s="14">
+        <f t="shared" si="4"/>
+        <v>37.490944978103187</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="5"/>
+        <v>39.720272576955281</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="2"/>
+        <v>39.720272576955281</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>40.867120181405895</v>
+      </c>
+      <c r="E30" s="14">
+        <f t="shared" si="4"/>
+        <v>39.720272576955281</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="5"/>
+        <v>42.082162893175692</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="2"/>
+        <v>42.082162893175692</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="C31" s="11">
         <f t="shared" si="0"/>
         <v>932.32752303617985</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D31" s="6">
         <f t="shared" si="1"/>
         <v>43.297205604945496</v>
       </c>
-      <c r="E18" s="14">
-        <f>F17</f>
+      <c r="E31" s="14">
+        <f t="shared" si="4"/>
         <v>42.082162893175692</v>
       </c>
-      <c r="F18" s="15">
-        <f>((D19-D18)/2)+D18</f>
+      <c r="F31" s="15">
+        <f t="shared" si="5"/>
         <v>44.584498516135838</v>
       </c>
-      <c r="G18" s="10">
-        <f t="shared" ref="G18:G81" si="2">F18</f>
+      <c r="G31" s="10">
+        <f t="shared" si="2"/>
         <v>44.584498516135838</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <f t="shared" ref="B19:B82" si="3">B18+1</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="C32" s="11">
         <f t="shared" si="0"/>
-        <v>987.76660251224826</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="1"/>
-        <v>45.87179142732618</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" ref="E19:E82" si="4">F18</f>
+        <v>987.76660251224848</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" si="1"/>
+        <v>45.871791427326187</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="4"/>
         <v>44.584498516135838</v>
       </c>
-      <c r="F19" s="15">
-        <f t="shared" ref="F19:F82" si="5">((D20-D19)/2)+D19</f>
+      <c r="F32" s="15">
+        <f t="shared" si="5"/>
         <v>47.235630758362689</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G32" s="10">
         <f t="shared" si="2"/>
         <v>47.235630758362689</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="C20" s="11">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="C33" s="11">
         <f t="shared" si="0"/>
         <v>1046.5022612023947</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D33" s="6">
         <f t="shared" si="1"/>
         <v>48.59947008939919</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E33" s="14">
         <f t="shared" si="4"/>
         <v>47.235630758362689</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F33" s="15">
         <f t="shared" si="5"/>
         <v>50.044407527268035</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G33" s="10">
         <f t="shared" si="2"/>
         <v>50.044407527268035</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="C21" s="11">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="C34" s="11">
         <f t="shared" si="0"/>
-        <v>1108.7305239074883</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" si="1"/>
-        <v>51.489344965136873</v>
-      </c>
-      <c r="E21" s="14">
+        <v>1108.7305239074885</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" si="1"/>
+        <v>51.48934496513688</v>
+      </c>
+      <c r="E34" s="14">
         <f t="shared" si="4"/>
         <v>50.044407527268035</v>
       </c>
-      <c r="F21" s="15">
-        <f t="shared" si="5"/>
-        <v>53.02020285421699</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="2"/>
-        <v>53.02020285421699</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="F34" s="15">
+        <f t="shared" si="5"/>
+        <v>53.020202854217004</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="2"/>
+        <v>53.020202854217004</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="C35" s="11">
         <f t="shared" si="0"/>
-        <v>1174.6590716696303</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="1"/>
-        <v>54.551060743297114</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="4"/>
-        <v>53.02020285421699</v>
-      </c>
-      <c r="F22" s="15">
-        <f t="shared" si="5"/>
-        <v>56.172948179486276</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="2"/>
-        <v>56.172948179486276</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="C23" s="11">
+        <v>1174.6590716696305</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="1"/>
+        <v>54.551060743297128</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" si="4"/>
+        <v>53.020202854217004</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="5"/>
+        <v>56.172948179486291</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="2"/>
+        <v>56.172948179486291</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="C36" s="11">
         <f t="shared" si="0"/>
-        <v>1244.5079348883237</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="1"/>
-        <v>57.794835615675439</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="4"/>
-        <v>56.172948179486276</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="5"/>
-        <v>59.513165497522877</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="2"/>
-        <v>59.513165497522877</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="C24" s="11">
+        <v>1244.5079348883239</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" si="1"/>
+        <v>57.794835615675453</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="4"/>
+        <v>56.172948179486291</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="5"/>
+        <v>59.513165497522891</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="2"/>
+        <v>59.513165497522891</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" si="0"/>
-        <v>1318.5102276514799</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="1"/>
-        <v>61.231495379370315</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="4"/>
-        <v>59.513165497522877</v>
-      </c>
-      <c r="F24" s="15">
-        <f t="shared" si="5"/>
-        <v>63.052002473122435</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="2"/>
-        <v>63.052002473122435</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C25" s="11">
+        <v>1318.5102276514801</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="1"/>
+        <v>61.231495379370322</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" si="4"/>
+        <v>59.513165497522891</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="5"/>
+        <v>63.052002473122442</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="2"/>
+        <v>63.052002473122442</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="0"/>
-        <v>1396.9129257320155</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" si="1"/>
-        <v>64.872509566874555</v>
-      </c>
-      <c r="E25" s="14">
-        <f t="shared" si="4"/>
-        <v>63.052002473122435</v>
-      </c>
-      <c r="F25" s="15">
+        <v>1396.9129257320158</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="1"/>
+        <v>64.872509566874569</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="4"/>
+        <v>63.052002473122442</v>
+      </c>
+      <c r="F38" s="15">
         <f t="shared" si="5"/>
         <v>66.801269645724233</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G38" s="10">
         <f t="shared" si="2"/>
         <v>66.801269645724233</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C26" s="11">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="0"/>
         <v>1479.9776908465378</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D39" s="6">
         <f t="shared" si="1"/>
         <v>68.73002972457391</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E39" s="14">
         <f t="shared" si="4"/>
         <v>66.801269645724233</v>
       </c>
-      <c r="F26" s="15">
-        <f t="shared" si="5"/>
-        <v>70.77347984598866</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" si="2"/>
-        <v>70.77347984598866</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="F39" s="15">
+        <f t="shared" si="5"/>
+        <v>70.773479845988675</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="2"/>
+        <v>70.773479845988675</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="C40" s="11">
         <f t="shared" si="0"/>
-        <v>1567.9817439269973</v>
-      </c>
-      <c r="D27" s="6">
-        <f t="shared" si="1"/>
-        <v>72.816929967403411</v>
-      </c>
-      <c r="E27" s="14">
-        <f t="shared" si="4"/>
-        <v>70.77347984598866</v>
-      </c>
-      <c r="F27" s="15">
+        <v>1567.9817439269975</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" si="1"/>
+        <v>72.816929967403425</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="4"/>
+        <v>70.773479845988675</v>
+      </c>
+      <c r="F40" s="15">
         <f t="shared" si="5"/>
         <v>74.981889956206373</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G40" s="10">
         <f t="shared" si="2"/>
         <v>74.981889956206373</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="5">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C28" s="11">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="C41" s="11">
         <f t="shared" si="0"/>
-        <v>1661.218790319781</v>
-      </c>
-      <c r="D28" s="6">
+        <v>1661.2187903197812</v>
+      </c>
+      <c r="D41" s="6">
         <f t="shared" si="1"/>
         <v>77.146849945009336</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E41" s="14">
         <f t="shared" si="4"/>
         <v>74.981889956206373</v>
       </c>
-      <c r="F28" s="15">
-        <f t="shared" si="5"/>
-        <v>79.440545153910563</v>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" si="2"/>
-        <v>79.440545153910563</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="F41" s="15">
+        <f t="shared" si="5"/>
+        <v>79.440545153910577</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="2"/>
+        <v>79.440545153910577</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="C42" s="11">
         <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="D29" s="6">
-        <f t="shared" si="1"/>
-        <v>81.734240362811789</v>
-      </c>
-      <c r="E29" s="14">
-        <f t="shared" si="4"/>
-        <v>79.440545153910563</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="5"/>
-        <v>84.164325786351384</v>
-      </c>
-      <c r="G29" s="10">
-        <f t="shared" si="2"/>
-        <v>84.164325786351384</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="C30" s="11">
+        <v>1760.0000000000005</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" si="1"/>
+        <v>81.734240362811818</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="4"/>
+        <v>79.440545153910577</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="5"/>
+        <v>84.164325786351412</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="2"/>
+        <v>84.164325786351412</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="C43" s="11">
         <f t="shared" si="0"/>
-        <v>1864.6550460723597</v>
-      </c>
-      <c r="D30" s="6">
-        <f t="shared" si="1"/>
-        <v>86.594411209890993</v>
-      </c>
-      <c r="E30" s="14">
-        <f t="shared" si="4"/>
-        <v>84.164325786351384</v>
-      </c>
-      <c r="F30" s="15">
-        <f t="shared" si="5"/>
-        <v>89.168997032271676</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" si="2"/>
-        <v>89.168997032271676</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="C31" s="11">
+        <v>1864.6550460723602</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" si="1"/>
+        <v>86.594411209891007</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="4"/>
+        <v>84.164325786351412</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="5"/>
+        <v>89.16899703227169</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="2"/>
+        <v>89.16899703227169</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="C44" s="11">
         <f t="shared" si="0"/>
         <v>1975.533205024497</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D44" s="6">
         <f t="shared" si="1"/>
         <v>91.743582854652374</v>
       </c>
-      <c r="E31" s="14">
-        <f t="shared" si="4"/>
-        <v>89.168997032271676</v>
-      </c>
-      <c r="F31" s="15">
-        <f t="shared" si="5"/>
-        <v>94.471261516725377</v>
-      </c>
-      <c r="G31" s="10">
-        <f t="shared" si="2"/>
-        <v>94.471261516725377</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="E44" s="14">
+        <f t="shared" si="4"/>
+        <v>89.16899703227169</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="5"/>
+        <v>94.471261516725406</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="2"/>
+        <v>94.471261516725406</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="C45" s="11">
         <f t="shared" si="0"/>
-        <v>2093.0045224047894</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="1"/>
-        <v>97.198940178798381</v>
-      </c>
-      <c r="E32" s="14">
-        <f t="shared" si="4"/>
-        <v>94.471261516725377</v>
-      </c>
-      <c r="F32" s="15">
-        <f t="shared" si="5"/>
-        <v>100.08881505453607</v>
-      </c>
-      <c r="G32" s="10">
-        <f t="shared" si="2"/>
-        <v>100.08881505453607</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="5">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="C33" s="11">
+        <v>2093.0045224047904</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="1"/>
+        <v>97.198940178798424</v>
+      </c>
+      <c r="E45" s="14">
+        <f t="shared" si="4"/>
+        <v>94.471261516725406</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="5"/>
+        <v>100.0888150545361</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="2"/>
+        <v>100.0888150545361</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="C46" s="11">
         <f t="shared" si="0"/>
         <v>2217.4610478149771</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D46" s="6">
         <f t="shared" si="1"/>
         <v>102.97868993027376</v>
       </c>
-      <c r="E33" s="14">
-        <f t="shared" si="4"/>
-        <v>100.08881505453607</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="E46" s="14">
+        <f t="shared" si="4"/>
+        <v>100.0888150545361</v>
+      </c>
+      <c r="F46" s="15">
         <f t="shared" si="5"/>
         <v>106.04040570843401</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G46" s="10">
         <f t="shared" si="2"/>
         <v>106.04040570843401</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="C34" s="11">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C47" s="11">
         <f t="shared" si="0"/>
         <v>2349.318143339261</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D47" s="6">
         <f t="shared" si="1"/>
         <v>109.10212148659426</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E47" s="14">
         <f t="shared" si="4"/>
         <v>106.04040570843401</v>
       </c>
-      <c r="F34" s="15">
-        <f t="shared" si="5"/>
-        <v>112.34589635897258</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="2"/>
-        <v>112.34589635897258</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="C35" s="11">
+      <c r="F47" s="15">
+        <f t="shared" si="5"/>
+        <v>112.3458963589726</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="2"/>
+        <v>112.3458963589726</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="C48" s="11">
         <f t="shared" si="0"/>
-        <v>2489.0158697766478</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="1"/>
-        <v>115.58967123135091</v>
-      </c>
-      <c r="E35" s="14">
-        <f t="shared" si="4"/>
-        <v>112.34589635897258</v>
-      </c>
-      <c r="F35" s="15">
+        <v>2489.0158697766483</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="1"/>
+        <v>115.58967123135092</v>
+      </c>
+      <c r="E48" s="14">
+        <f t="shared" si="4"/>
+        <v>112.3458963589726</v>
+      </c>
+      <c r="F48" s="15">
         <f t="shared" si="5"/>
         <v>119.02633099504578</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G48" s="10">
         <f t="shared" si="2"/>
         <v>119.02633099504578</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="C36" s="11">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="C49" s="11">
         <f t="shared" si="0"/>
         <v>2637.0204553029603</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D49" s="6">
         <f t="shared" si="1"/>
         <v>122.46299075874064</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E49" s="14">
         <f t="shared" si="4"/>
         <v>119.02633099504578</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F49" s="15">
         <f t="shared" si="5"/>
         <v>126.10400494624488</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G49" s="10">
         <f t="shared" si="2"/>
         <v>126.10400494624488</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" si="0"/>
-        <v>2793.8258514640315</v>
-      </c>
-      <c r="D37" s="6">
-        <f t="shared" si="1"/>
-        <v>129.74501913374914</v>
-      </c>
-      <c r="E37" s="14">
-        <f t="shared" si="4"/>
-        <v>126.10400494624488</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="5"/>
-        <v>133.60253929144847</v>
-      </c>
-      <c r="G37" s="10">
-        <f t="shared" si="2"/>
-        <v>133.60253929144847</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="C38" s="11">
-        <f t="shared" si="0"/>
-        <v>2959.9553816930757</v>
-      </c>
-      <c r="D38" s="6">
-        <f t="shared" si="1"/>
-        <v>137.46005944914782</v>
-      </c>
-      <c r="E38" s="14">
-        <f t="shared" si="4"/>
-        <v>133.60253929144847</v>
-      </c>
-      <c r="F38" s="15">
-        <f t="shared" si="5"/>
-        <v>141.54695969197735</v>
-      </c>
-      <c r="G38" s="10">
-        <f t="shared" si="2"/>
-        <v>141.54695969197735</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="0"/>
-        <v>3135.963487853995</v>
-      </c>
-      <c r="D39" s="6">
-        <f t="shared" si="1"/>
-        <v>145.63385993480685</v>
-      </c>
-      <c r="E39" s="14">
-        <f t="shared" si="4"/>
-        <v>141.54695969197735</v>
-      </c>
-      <c r="F39" s="15">
-        <f t="shared" si="5"/>
-        <v>149.96377991241275</v>
-      </c>
-      <c r="G39" s="10">
-        <f t="shared" si="2"/>
-        <v>149.96377991241275</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" si="0"/>
-        <v>3322.4375806395624</v>
-      </c>
-      <c r="D40" s="6">
-        <f t="shared" si="1"/>
-        <v>154.29369989001867</v>
-      </c>
-      <c r="E40" s="14">
-        <f t="shared" si="4"/>
-        <v>149.96377991241275</v>
-      </c>
-      <c r="F40" s="15">
-        <f t="shared" si="5"/>
-        <v>158.88109030782115</v>
-      </c>
-      <c r="G40" s="10">
-        <f t="shared" si="2"/>
-        <v>158.88109030782115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="C41" s="11">
-        <f t="shared" si="0"/>
-        <v>3520.0000000000009</v>
-      </c>
-      <c r="D41" s="6">
-        <f t="shared" si="1"/>
-        <v>163.46848072562364</v>
-      </c>
-      <c r="E41" s="14">
-        <f t="shared" si="4"/>
-        <v>158.88109030782115</v>
-      </c>
-      <c r="F41" s="15">
-        <f t="shared" si="5"/>
-        <v>168.32865157270282</v>
-      </c>
-      <c r="G41" s="10">
-        <f t="shared" si="2"/>
-        <v>168.32865157270282</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="C42" s="11">
-        <f t="shared" si="0"/>
-        <v>3729.3100921447203</v>
-      </c>
-      <c r="D42" s="6">
-        <f t="shared" si="1"/>
-        <v>173.18882241978201</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" si="4"/>
-        <v>168.32865157270282</v>
-      </c>
-      <c r="F42" s="15">
-        <f t="shared" si="5"/>
-        <v>178.33799406454338</v>
-      </c>
-      <c r="G42" s="10">
-        <f t="shared" si="2"/>
-        <v>178.33799406454338</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="5">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="C43" s="11">
-        <f t="shared" si="0"/>
-        <v>3951.0664100489939</v>
-      </c>
-      <c r="D43" s="6">
-        <f t="shared" si="1"/>
-        <v>183.48716570930475</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="4"/>
-        <v>178.33799406454338</v>
-      </c>
-      <c r="F43" s="15">
-        <f t="shared" si="5"/>
-        <v>188.94252303345081</v>
-      </c>
-      <c r="G43" s="10">
-        <f t="shared" si="2"/>
-        <v>188.94252303345081</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="C44" s="11">
-        <f t="shared" si="0"/>
-        <v>4186.0090448095807</v>
-      </c>
-      <c r="D44" s="6">
-        <f t="shared" si="1"/>
-        <v>194.39788035759685</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" si="4"/>
-        <v>188.94252303345081</v>
-      </c>
-      <c r="F44" s="15">
-        <f t="shared" si="5"/>
-        <v>200.1776301090722</v>
-      </c>
-      <c r="G44" s="10">
-        <f t="shared" si="2"/>
-        <v>200.1776301090722</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="C45" s="11">
-        <f t="shared" si="0"/>
-        <v>4434.9220956299541</v>
-      </c>
-      <c r="D45" s="6">
-        <f t="shared" si="1"/>
-        <v>205.95737986054752</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="4"/>
-        <v>200.1776301090722</v>
-      </c>
-      <c r="F45" s="15">
-        <f t="shared" si="5"/>
-        <v>212.08081141686802</v>
-      </c>
-      <c r="G45" s="10">
-        <f t="shared" si="2"/>
-        <v>212.08081141686802</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="C46" s="11">
-        <f t="shared" si="0"/>
-        <v>4698.6362866785221</v>
-      </c>
-      <c r="D46" s="6">
-        <f t="shared" si="1"/>
-        <v>218.20424297318851</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="4"/>
-        <v>212.08081141686802</v>
-      </c>
-      <c r="F46" s="15">
-        <f t="shared" si="5"/>
-        <v>224.69179271794519</v>
-      </c>
-      <c r="G46" s="10">
-        <f t="shared" si="2"/>
-        <v>224.69179271794519</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="5">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" si="0"/>
-        <v>4978.0317395532966</v>
-      </c>
-      <c r="D47" s="6">
-        <f t="shared" si="1"/>
-        <v>231.17934246270184</v>
-      </c>
-      <c r="E47" s="14">
-        <f t="shared" si="4"/>
-        <v>224.69179271794519</v>
-      </c>
-      <c r="F47" s="15">
-        <f t="shared" si="5"/>
-        <v>238.05266199009156</v>
-      </c>
-      <c r="G47" s="10">
-        <f t="shared" si="2"/>
-        <v>238.05266199009156</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="5">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="C48" s="11">
-        <f t="shared" si="0"/>
-        <v>5274.0409106059205</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" si="1"/>
-        <v>244.92598151748129</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="4"/>
-        <v>238.05266199009156</v>
-      </c>
-      <c r="F48" s="15">
-        <f t="shared" si="5"/>
-        <v>252.20800989248977</v>
-      </c>
-      <c r="G48" s="10">
-        <f t="shared" si="2"/>
-        <v>252.20800989248977</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="C49" s="11">
-        <f t="shared" si="0"/>
-        <v>5587.651702928064</v>
-      </c>
-      <c r="D49" s="6">
-        <f t="shared" si="1"/>
-        <v>259.49003826749828</v>
-      </c>
-      <c r="E49" s="14">
-        <f t="shared" si="4"/>
-        <v>252.20800989248977</v>
-      </c>
-      <c r="F49" s="15">
-        <f t="shared" si="5"/>
-        <v>267.20507858289699</v>
-      </c>
-      <c r="G49" s="10">
-        <f t="shared" si="2"/>
-        <v>267.20507858289699</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" si="0"/>
-        <v>5919.9107633861522</v>
+        <f t="shared" ref="C50:C81" si="6">$B$6*POWER($B$12,B50)</f>
+        <v>2793.825851464032</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" si="1"/>
-        <v>274.9201188982957</v>
+        <v>129.74501913374914</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="4"/>
-        <v>267.20507858289699</v>
+        <v>126.10400494624488</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="5"/>
-        <v>283.0939193839547</v>
+        <v>133.60253929144849</v>
       </c>
       <c r="G50" s="10">
         <f t="shared" si="2"/>
-        <v>283.0939193839547</v>
+        <v>133.60253929144849</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="0"/>
-        <v>6271.926975707991</v>
+        <f t="shared" si="6"/>
+        <v>2959.9553816930761</v>
       </c>
       <c r="D51" s="6">
         <f t="shared" si="1"/>
-        <v>291.26771986961376</v>
+        <v>137.46005944914785</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="4"/>
-        <v>283.0939193839547</v>
+        <v>133.60253929144849</v>
       </c>
       <c r="F51" s="15">
         <f t="shared" si="5"/>
-        <v>299.92755982482561</v>
+        <v>141.54695969197735</v>
       </c>
       <c r="G51" s="10">
         <f t="shared" si="2"/>
-        <v>299.92755982482561</v>
+        <v>141.54695969197735</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" si="0"/>
-        <v>6644.8751612791257</v>
+        <f t="shared" si="6"/>
+        <v>3135.9634878539955</v>
       </c>
       <c r="D52" s="6">
         <f t="shared" si="1"/>
-        <v>308.5873997800374</v>
+        <v>145.63385993480688</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="4"/>
-        <v>299.92755982482561</v>
+        <v>141.54695969197735</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="5"/>
-        <v>317.76218061564236</v>
+        <v>149.9637799124128</v>
       </c>
       <c r="G52" s="10">
         <f t="shared" si="2"/>
-        <v>317.76218061564236</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="18"/>
+        <v>149.9637799124128</v>
+      </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="11">
-        <f t="shared" si="0"/>
-        <v>7040.0000000000027</v>
+        <f t="shared" si="6"/>
+        <v>3322.4375806395628</v>
       </c>
       <c r="D53" s="6">
         <f t="shared" si="1"/>
-        <v>326.93696145124727</v>
+        <v>154.2936998900187</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="4"/>
-        <v>317.76218061564236</v>
+        <v>149.9637799124128</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="5"/>
-        <v>336.65730314540565</v>
+        <v>158.88109030782118</v>
       </c>
       <c r="G53" s="10">
         <f t="shared" si="2"/>
-        <v>336.65730314540565</v>
+        <v>158.88109030782118</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="18"/>
@@ -4810,27 +4811,27 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="5">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" si="0"/>
-        <v>7458.6201842894407</v>
+        <f t="shared" si="6"/>
+        <v>3520.0000000000014</v>
       </c>
       <c r="D54" s="6">
         <f t="shared" si="1"/>
-        <v>346.37764483956403</v>
+        <v>163.46848072562364</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="4"/>
-        <v>336.65730314540565</v>
+        <v>158.88109030782118</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="5"/>
-        <v>356.67598812908682</v>
+        <v>168.32865157270282</v>
       </c>
       <c r="G54" s="10">
         <f t="shared" si="2"/>
-        <v>356.67598812908682</v>
+        <v>168.32865157270282</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="18"/>
@@ -4838,27 +4839,27 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" s="11">
-        <f t="shared" si="0"/>
-        <v>7902.1328200979888</v>
+        <f t="shared" si="6"/>
+        <v>3729.3100921447203</v>
       </c>
       <c r="D55" s="6">
         <f t="shared" si="1"/>
-        <v>366.97433141860955</v>
+        <v>173.18882241978201</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="4"/>
-        <v>356.67598812908682</v>
+        <v>168.32865157270282</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="5"/>
-        <v>377.88504606690162</v>
+        <v>178.33799406454341</v>
       </c>
       <c r="G55" s="10">
         <f t="shared" si="2"/>
-        <v>377.88504606690162</v>
+        <v>178.33799406454341</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="18"/>
@@ -4866,27 +4867,27 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" si="0"/>
-        <v>8372.0180896191614</v>
+        <f t="shared" si="6"/>
+        <v>3951.0664100489944</v>
       </c>
       <c r="D56" s="6">
         <f t="shared" si="1"/>
-        <v>388.79576071519369</v>
+        <v>183.48716570930478</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="4"/>
-        <v>377.88504606690162</v>
+        <v>178.33799406454341</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="5"/>
-        <v>400.35526021814439</v>
+        <v>188.94252303345081</v>
       </c>
       <c r="G56" s="10">
         <f t="shared" si="2"/>
-        <v>400.35526021814439</v>
+        <v>188.94252303345081</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="18"/>
@@ -4894,27 +4895,27 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" si="0"/>
-        <v>8869.8441912599101</v>
+        <f t="shared" si="6"/>
+        <v>4186.0090448095807</v>
       </c>
       <c r="D57" s="6">
         <f t="shared" si="1"/>
-        <v>411.91475972109515</v>
+        <v>194.39788035759685</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="4"/>
-        <v>400.35526021814439</v>
+        <v>188.94252303345081</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="5"/>
-        <v>424.16162283373615</v>
+        <v>200.1776301090722</v>
       </c>
       <c r="G57" s="10">
         <f t="shared" si="2"/>
-        <v>424.16162283373615</v>
+        <v>200.1776301090722</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="18"/>
@@ -4922,27 +4923,27 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="5">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="11">
-        <f t="shared" si="0"/>
-        <v>9397.272573357046</v>
+        <f t="shared" si="6"/>
+        <v>4434.922095629955</v>
       </c>
       <c r="D58" s="6">
         <f t="shared" si="1"/>
-        <v>436.40848594637708</v>
+        <v>205.95737986054758</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="4"/>
-        <v>424.16162283373615</v>
+        <v>200.1776301090722</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="5"/>
-        <v>449.38358543589038</v>
+        <v>212.08081141686807</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="2"/>
-        <v>449.38358543589038</v>
+        <v>212.08081141686807</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="18"/>
@@ -4950,27 +4951,27 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" si="0"/>
-        <v>9956.0634791065931</v>
+        <f t="shared" si="6"/>
+        <v>4698.636286678523</v>
       </c>
       <c r="D59" s="6">
         <f t="shared" si="1"/>
-        <v>462.35868492540368</v>
+        <v>218.20424297318854</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="4"/>
-        <v>449.38358543589038</v>
+        <v>212.08081141686807</v>
       </c>
       <c r="F59" s="15">
         <f t="shared" si="5"/>
-        <v>476.10532398018324</v>
+        <v>224.69179271794519</v>
       </c>
       <c r="G59" s="10">
         <f t="shared" si="2"/>
-        <v>476.10532398018324</v>
+        <v>224.69179271794519</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="18"/>
@@ -4978,27 +4979,27 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="5">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="11">
-        <f t="shared" si="0"/>
-        <v>10548.081821211845</v>
+        <f t="shared" si="6"/>
+        <v>4978.0317395532966</v>
       </c>
       <c r="D60" s="6">
         <f t="shared" si="1"/>
-        <v>489.85196303496275</v>
+        <v>231.17934246270184</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="4"/>
-        <v>476.10532398018324</v>
+        <v>224.69179271794519</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="5"/>
-        <v>504.41601978497965</v>
+        <v>238.05266199009162</v>
       </c>
       <c r="G60" s="10">
         <f t="shared" si="2"/>
-        <v>504.41601978497965</v>
+        <v>238.05266199009162</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="18"/>
@@ -5006,27 +5007,27 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="5">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="11">
-        <f t="shared" si="0"/>
-        <v>11175.303405856128</v>
+        <f t="shared" si="6"/>
+        <v>5274.0409106059224</v>
       </c>
       <c r="D61" s="6">
         <f t="shared" si="1"/>
-        <v>518.98007653499656</v>
+        <v>244.92598151748138</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="4"/>
-        <v>504.41601978497965</v>
+        <v>238.05266199009162</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="5"/>
-        <v>534.41015716579398</v>
+        <v>252.20800989248983</v>
       </c>
       <c r="G61" s="10">
         <f t="shared" si="2"/>
-        <v>534.41015716579398</v>
+        <v>252.20800989248983</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="18"/>
@@ -5034,27 +5035,27 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="5">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="11">
-        <f t="shared" si="0"/>
-        <v>11839.821526772304</v>
+        <f t="shared" si="6"/>
+        <v>5587.651702928064</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" si="1"/>
-        <v>549.8402377965914</v>
+        <v>259.49003826749828</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="4"/>
-        <v>534.41015716579398</v>
+        <v>252.20800989248983</v>
       </c>
       <c r="F62" s="15">
         <f t="shared" si="5"/>
-        <v>566.18783876790951</v>
+        <v>267.20507858289699</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="2"/>
-        <v>566.18783876790951</v>
+        <v>267.20507858289699</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="18"/>
@@ -5062,27 +5063,27 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="5">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="11">
-        <f t="shared" si="0"/>
-        <v>12543.853951415986</v>
+        <f t="shared" si="6"/>
+        <v>5919.9107633861522</v>
       </c>
       <c r="D63" s="6">
         <f t="shared" si="1"/>
-        <v>582.53543973922763</v>
+        <v>274.9201188982957</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="4"/>
-        <v>566.18783876790951</v>
+        <v>267.20507858289699</v>
       </c>
       <c r="F63" s="15">
         <f t="shared" si="5"/>
-        <v>599.85511964965121</v>
+        <v>283.09391938395476</v>
       </c>
       <c r="G63" s="10">
         <f t="shared" si="2"/>
-        <v>599.85511964965121</v>
+        <v>283.09391938395476</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="18"/>
@@ -5090,27 +5091,27 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="5">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="11">
-        <f t="shared" si="0"/>
-        <v>13289.750322558251</v>
+        <f t="shared" si="6"/>
+        <v>6271.9269757079928</v>
       </c>
       <c r="D64" s="6">
         <f t="shared" si="1"/>
-        <v>617.1747995600748</v>
+        <v>291.26771986961381</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="4"/>
-        <v>599.85511964965121</v>
+        <v>283.09391938395476</v>
       </c>
       <c r="F64" s="15">
         <f t="shared" si="5"/>
-        <v>635.52436123128473</v>
+        <v>299.92755982482561</v>
       </c>
       <c r="G64" s="10">
         <f t="shared" si="2"/>
-        <v>635.52436123128473</v>
+        <v>299.92755982482561</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="18"/>
@@ -5118,27 +5119,27 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="5">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="11">
-        <f t="shared" si="0"/>
-        <v>14080.000000000005</v>
+        <f t="shared" si="6"/>
+        <v>6644.8751612791257</v>
       </c>
       <c r="D65" s="6">
         <f t="shared" si="1"/>
-        <v>653.87392290249454</v>
+        <v>308.5873997800374</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="4"/>
-        <v>635.52436123128473</v>
+        <v>299.92755982482561</v>
       </c>
       <c r="F65" s="15">
         <f t="shared" si="5"/>
-        <v>673.31460629081141</v>
+        <v>317.76218061564236</v>
       </c>
       <c r="G65" s="10">
         <f t="shared" si="2"/>
-        <v>673.31460629081141</v>
+        <v>317.76218061564236</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="18"/>
@@ -5146,1345 +5147,1373 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="5">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="11">
-        <f t="shared" si="0"/>
-        <v>14917.240368578885</v>
+        <f t="shared" si="6"/>
+        <v>7040.0000000000027</v>
       </c>
       <c r="D66" s="6">
         <f t="shared" si="1"/>
-        <v>692.75528967912828</v>
+        <v>326.93696145124727</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="4"/>
-        <v>673.31460629081141</v>
+        <v>317.76218061564236</v>
       </c>
       <c r="F66" s="15">
         <f t="shared" si="5"/>
-        <v>713.35197625817375</v>
+        <v>336.65730314540571</v>
       </c>
       <c r="G66" s="10">
         <f t="shared" si="2"/>
-        <v>713.35197625817375</v>
-      </c>
+        <v>336.65730314540571</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="18"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="5">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" s="11">
-        <f t="shared" si="0"/>
-        <v>15804.265640195981</v>
+        <f t="shared" si="6"/>
+        <v>7458.6201842894425</v>
       </c>
       <c r="D67" s="6">
         <f t="shared" si="1"/>
-        <v>733.94866283721922</v>
+        <v>346.37764483956414</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="4"/>
-        <v>713.35197625817375</v>
+        <v>336.65730314540571</v>
       </c>
       <c r="F67" s="15">
         <f t="shared" si="5"/>
-        <v>755.77009213380325</v>
+        <v>356.67598812908687</v>
       </c>
       <c r="G67" s="10">
         <f t="shared" si="2"/>
-        <v>755.77009213380325</v>
+        <v>356.67598812908687</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="11">
-        <f t="shared" si="0"/>
-        <v>16744.036179238323</v>
+        <f t="shared" si="6"/>
+        <v>7902.1328200979906</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="1"/>
-        <v>777.59152143038739</v>
+        <v>366.97433141860961</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" si="4"/>
-        <v>755.77009213380325</v>
+        <v>356.67598812908687</v>
       </c>
       <c r="F68" s="15">
         <f t="shared" si="5"/>
-        <v>800.7105204362889</v>
+        <v>377.88504606690162</v>
       </c>
       <c r="G68" s="10">
         <f t="shared" si="2"/>
-        <v>800.7105204362889</v>
+        <v>377.88504606690162</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="5">
         <f t="shared" si="3"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" s="11">
-        <f t="shared" si="0"/>
-        <v>17739.688382519824</v>
+        <f t="shared" si="6"/>
+        <v>8372.0180896191614</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="1"/>
-        <v>823.82951944219042</v>
+        <v>388.79576071519369</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" si="4"/>
-        <v>800.7105204362889</v>
+        <v>377.88504606690162</v>
       </c>
       <c r="F69" s="15">
         <f t="shared" si="5"/>
-        <v>848.32324566747229</v>
+        <v>400.35526021814445</v>
       </c>
       <c r="G69" s="10">
         <f t="shared" si="2"/>
-        <v>848.32324566747229</v>
+        <v>400.35526021814445</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="5">
         <f t="shared" si="3"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="11">
-        <f t="shared" si="0"/>
-        <v>18794.545146714092</v>
+        <f t="shared" si="6"/>
+        <v>8869.8441912599119</v>
       </c>
       <c r="D70" s="6">
         <f t="shared" si="1"/>
-        <v>872.81697189275417</v>
+        <v>411.91475972109521</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="4"/>
-        <v>848.32324566747229</v>
+        <v>400.35526021814445</v>
       </c>
       <c r="F70" s="15">
         <f t="shared" si="5"/>
-        <v>898.76717087178088</v>
+        <v>424.16162283373615</v>
       </c>
       <c r="G70" s="10">
         <f t="shared" si="2"/>
-        <v>898.76717087178088</v>
+        <v>424.16162283373615</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="5">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="11">
-        <f t="shared" si="0"/>
-        <v>19912.12695821319</v>
+        <f t="shared" si="6"/>
+        <v>9397.272573357046</v>
       </c>
       <c r="D71" s="6">
         <f t="shared" si="1"/>
-        <v>924.71736985080759</v>
+        <v>436.40848594637708</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" si="4"/>
-        <v>898.76717087178088</v>
+        <v>424.16162283373615</v>
       </c>
       <c r="F71" s="15">
         <f t="shared" si="5"/>
-        <v>952.21064796036671</v>
+        <v>449.38358543589044</v>
       </c>
       <c r="G71" s="10">
         <f t="shared" si="2"/>
-        <v>952.21064796036671</v>
+        <v>449.38358543589044</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="5">
         <f t="shared" si="3"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="11">
-        <f t="shared" si="0"/>
-        <v>21096.163642423693</v>
+        <f t="shared" si="6"/>
+        <v>9956.063479106595</v>
       </c>
       <c r="D72" s="6">
         <f t="shared" si="1"/>
-        <v>979.70392606992573</v>
+        <v>462.35868492540379</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="4"/>
-        <v>952.21064796036671</v>
+        <v>449.38358543589044</v>
       </c>
       <c r="F72" s="15">
         <f t="shared" si="5"/>
-        <v>1008.8320395699596</v>
+        <v>476.10532398018336</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="2"/>
-        <v>1008.8320395699596</v>
+        <v>476.10532398018336</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="5">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="11">
-        <f t="shared" si="0"/>
-        <v>22350.606811712263</v>
+        <f t="shared" si="6"/>
+        <v>10548.081821211847</v>
       </c>
       <c r="D73" s="6">
         <f t="shared" si="1"/>
-        <v>1037.9601530699936</v>
+        <v>489.85196303496286</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" si="4"/>
-        <v>1008.8320395699596</v>
+        <v>476.10532398018336</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="5"/>
-        <v>1068.8203143315882</v>
+        <v>504.41601978497982</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="2"/>
-        <v>1068.8203143315882</v>
+        <v>504.41601978497982</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="5">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="11">
-        <f t="shared" si="0"/>
-        <v>23679.643053544616</v>
+        <f t="shared" si="6"/>
+        <v>11175.303405856132</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="1"/>
-        <v>1099.680475593183</v>
+        <v>518.98007653499678</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" si="4"/>
-        <v>1068.8203143315882</v>
+        <v>504.41601978497982</v>
       </c>
       <c r="F74" s="15">
         <f t="shared" si="5"/>
-        <v>1132.3756775358192</v>
+        <v>534.41015716579409</v>
       </c>
       <c r="G74" s="10">
         <f t="shared" si="2"/>
-        <v>1132.3756775358192</v>
+        <v>534.41015716579409</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="11">
-        <f t="shared" si="0"/>
-        <v>25087.707902831971</v>
+        <f t="shared" si="6"/>
+        <v>11839.821526772308</v>
       </c>
       <c r="D75" s="6">
         <f t="shared" si="1"/>
-        <v>1165.0708794784553</v>
+        <v>549.84023779659151</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="4"/>
-        <v>1132.3756775358192</v>
+        <v>534.41015716579409</v>
       </c>
       <c r="F75" s="15">
         <f t="shared" si="5"/>
-        <v>1199.7102392993024</v>
+        <v>566.18783876790962</v>
       </c>
       <c r="G75" s="10">
         <f t="shared" si="2"/>
-        <v>1199.7102392993024</v>
+        <v>566.18783876790962</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="11">
-        <f t="shared" si="0"/>
-        <v>26579.50064511651</v>
+        <f t="shared" si="6"/>
+        <v>12543.853951415986</v>
       </c>
       <c r="D76" s="6">
         <f t="shared" si="1"/>
-        <v>1234.3495991201498</v>
+        <v>582.53543973922763</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" si="4"/>
-        <v>1199.7102392993024</v>
+        <v>566.18783876790962</v>
       </c>
       <c r="F76" s="15">
         <f t="shared" si="5"/>
-        <v>1271.0487224625695</v>
+        <v>599.85511964965121</v>
       </c>
       <c r="G76" s="10">
         <f t="shared" si="2"/>
-        <v>1271.0487224625695</v>
+        <v>599.85511964965121</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C77" s="11">
-        <f t="shared" si="0"/>
-        <v>28160.000000000011</v>
+        <f t="shared" si="6"/>
+        <v>13289.750322558255</v>
       </c>
       <c r="D77" s="6">
         <f t="shared" si="1"/>
-        <v>1307.7478458049891</v>
+        <v>617.17479956007492</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" si="4"/>
-        <v>1271.0487224625695</v>
+        <v>599.85511964965121</v>
       </c>
       <c r="F77" s="15">
         <f t="shared" si="5"/>
-        <v>1346.6292125816228</v>
+        <v>635.52436123128473</v>
       </c>
       <c r="G77" s="10">
         <f t="shared" si="2"/>
-        <v>1346.6292125816228</v>
+        <v>635.52436123128473</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C78" s="11">
-        <f t="shared" si="0"/>
-        <v>29834.48073715777</v>
+        <f t="shared" si="6"/>
+        <v>14080.000000000005</v>
       </c>
       <c r="D78" s="6">
         <f t="shared" si="1"/>
-        <v>1385.5105793582566</v>
+        <v>653.87392290249454</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" si="4"/>
-        <v>1346.6292125816228</v>
+        <v>635.52436123128473</v>
       </c>
       <c r="F78" s="15">
         <f t="shared" si="5"/>
-        <v>1426.7039525163477</v>
+        <v>673.31460629081141</v>
       </c>
       <c r="G78" s="10">
         <f t="shared" si="2"/>
-        <v>1426.7039525163477</v>
+        <v>673.31460629081141</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="5">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="11">
-        <f t="shared" si="0"/>
-        <v>31608.53128039197</v>
+        <f t="shared" si="6"/>
+        <v>14917.240368578885</v>
       </c>
       <c r="D79" s="6">
         <f t="shared" si="1"/>
-        <v>1467.8973256744389</v>
+        <v>692.75528967912828</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="4"/>
-        <v>1426.7039525163477</v>
+        <v>673.31460629081141</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="5"/>
-        <v>1511.5401842676069</v>
+        <v>713.35197625817386</v>
       </c>
       <c r="G79" s="10">
         <f t="shared" si="2"/>
-        <v>1511.5401842676069</v>
+        <v>713.35197625817386</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="5">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="11">
-        <f t="shared" si="0"/>
-        <v>33488.072358476646</v>
+        <f t="shared" si="6"/>
+        <v>15804.265640195985</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="1"/>
-        <v>1555.1830428607748</v>
+        <v>733.94866283721944</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="4"/>
-        <v>1511.5401842676069</v>
+        <v>713.35197625817386</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="5"/>
-        <v>1601.421040872578</v>
+        <v>755.77009213380347</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="2"/>
-        <v>1601.421040872578</v>
+        <v>755.77009213380347</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="11">
-        <f t="shared" ref="C81:C115" si="6">$B$6*POWER($B$11,B81)</f>
-        <v>35479.376765039655</v>
+        <f t="shared" si="6"/>
+        <v>16744.036179238323</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" ref="D81:D115" si="7">C81/$B$13</f>
-        <v>1647.6590388843813</v>
+        <f t="shared" si="1"/>
+        <v>777.59152143038739</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" si="4"/>
-        <v>1601.421040872578</v>
+        <v>755.77009213380347</v>
       </c>
       <c r="F81" s="15">
         <f t="shared" si="5"/>
-        <v>1696.646491334945</v>
+        <v>800.71052043628902</v>
       </c>
       <c r="G81" s="10">
         <f t="shared" si="2"/>
-        <v>1696.646491334945</v>
+        <v>800.71052043628902</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="5">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C82" s="11">
-        <f t="shared" si="6"/>
-        <v>37589.090293428198</v>
+        <f t="shared" ref="C82:C113" si="7">$B$6*POWER($B$12,B82)</f>
+        <v>17739.688382519827</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="7"/>
-        <v>1745.633943785509</v>
+        <f t="shared" ref="D82:D116" si="8">C82/$B$14</f>
+        <v>823.82951944219064</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" si="4"/>
-        <v>1696.646491334945</v>
+        <v>800.71052043628902</v>
       </c>
       <c r="F82" s="15">
         <f t="shared" si="5"/>
-        <v>1797.5343417435622</v>
+        <v>848.32324566747252</v>
       </c>
       <c r="G82" s="10">
-        <f t="shared" ref="G82:G115" si="8">F82</f>
-        <v>1797.5343417435622</v>
+        <f t="shared" si="2"/>
+        <v>848.32324566747252</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5">
-        <f t="shared" ref="B83:B115" si="9">B82+1</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="C83" s="11">
-        <f t="shared" si="6"/>
-        <v>39824.253916426387</v>
+        <f t="shared" si="7"/>
+        <v>18794.545146714099</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="7"/>
-        <v>1849.4347397016154</v>
+        <f t="shared" si="8"/>
+        <v>872.81697189275451</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" ref="E83:E115" si="10">F82</f>
-        <v>1797.5343417435622</v>
+        <f t="shared" si="4"/>
+        <v>848.32324566747252</v>
       </c>
       <c r="F83" s="15">
-        <f t="shared" ref="F83:F115" si="11">((D84-D83)/2)+D83</f>
-        <v>1904.4212959207334</v>
+        <f t="shared" si="5"/>
+        <v>898.7671708717811</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="8"/>
-        <v>1904.4212959207334</v>
+        <f t="shared" ref="G83:G116" si="9">F83</f>
+        <v>898.7671708717811</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="5">
+        <f t="shared" ref="B84:B116" si="10">B83+1</f>
+        <v>66</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="7"/>
+        <v>19912.126958213194</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="8"/>
+        <v>924.7173698508077</v>
+      </c>
+      <c r="E84" s="14">
+        <f t="shared" ref="E84:E116" si="11">F83</f>
+        <v>898.7671708717811</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" ref="F84:F116" si="12">((D85-D84)/2)+D84</f>
+        <v>952.21064796036671</v>
+      </c>
+      <c r="G84" s="10">
         <f t="shared" si="9"/>
+        <v>952.21064796036671</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="5">
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="C84" s="11">
-        <f t="shared" si="6"/>
+      <c r="C85" s="11">
+        <f t="shared" si="7"/>
+        <v>21096.163642423693</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="8"/>
+        <v>979.70392606992573</v>
+      </c>
+      <c r="E85" s="14">
+        <f t="shared" si="11"/>
+        <v>952.21064796036671</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="12"/>
+        <v>1008.8320395699598</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" si="9"/>
+        <v>1008.8320395699598</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="5">
+        <f t="shared" si="10"/>
+        <v>68</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="7"/>
+        <v>22350.606811712267</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="8"/>
+        <v>1037.9601530699938</v>
+      </c>
+      <c r="E86" s="14">
+        <f t="shared" si="11"/>
+        <v>1008.8320395699598</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="12"/>
+        <v>1068.8203143315886</v>
+      </c>
+      <c r="G86" s="10">
+        <f t="shared" si="9"/>
+        <v>1068.8203143315886</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="5">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="C87" s="11">
+        <f t="shared" si="7"/>
+        <v>23679.64305354462</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="8"/>
+        <v>1099.6804755931832</v>
+      </c>
+      <c r="E87" s="14">
+        <f t="shared" si="11"/>
+        <v>1068.8203143315886</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="12"/>
+        <v>1132.3756775358192</v>
+      </c>
+      <c r="G87" s="10">
+        <f t="shared" si="9"/>
+        <v>1132.3756775358192</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="5">
+        <f t="shared" si="10"/>
+        <v>70</v>
+      </c>
+      <c r="C88" s="11">
+        <f t="shared" si="7"/>
+        <v>25087.707902831975</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="8"/>
+        <v>1165.0708794784555</v>
+      </c>
+      <c r="E88" s="14">
+        <f t="shared" si="11"/>
+        <v>1132.3756775358192</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="12"/>
+        <v>1199.7102392993027</v>
+      </c>
+      <c r="G88" s="10">
+        <f t="shared" si="9"/>
+        <v>1199.7102392993027</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="5">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" si="7"/>
+        <v>26579.50064511651</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="8"/>
+        <v>1234.3495991201498</v>
+      </c>
+      <c r="E89" s="14">
+        <f t="shared" si="11"/>
+        <v>1199.7102392993027</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="12"/>
+        <v>1271.0487224625699</v>
+      </c>
+      <c r="G89" s="10">
+        <f t="shared" si="9"/>
+        <v>1271.0487224625699</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="5">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="C90" s="11">
+        <f t="shared" si="7"/>
+        <v>28160.000000000025</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="8"/>
+        <v>1307.7478458049898</v>
+      </c>
+      <c r="E90" s="14">
+        <f t="shared" si="11"/>
+        <v>1271.0487224625699</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="12"/>
+        <v>1346.6292125816235</v>
+      </c>
+      <c r="G90" s="10">
+        <f t="shared" si="9"/>
+        <v>1346.6292125816235</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="5">
+        <f t="shared" si="10"/>
+        <v>73</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" si="7"/>
+        <v>29834.480737157781</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="8"/>
+        <v>1385.510579358257</v>
+      </c>
+      <c r="E91" s="14">
+        <f t="shared" si="11"/>
+        <v>1346.6292125816235</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="12"/>
+        <v>1426.703952516348</v>
+      </c>
+      <c r="G91" s="10">
+        <f t="shared" si="9"/>
+        <v>1426.703952516348</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="5">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="C92" s="11">
+        <f t="shared" si="7"/>
+        <v>31608.53128039197</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="8"/>
+        <v>1467.8973256744389</v>
+      </c>
+      <c r="E92" s="14">
+        <f t="shared" si="11"/>
+        <v>1426.703952516348</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="12"/>
+        <v>1511.5401842676072</v>
+      </c>
+      <c r="G92" s="10">
+        <f t="shared" si="9"/>
+        <v>1511.5401842676072</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="5">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" si="7"/>
+        <v>33488.07235847666</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="8"/>
+        <v>1555.1830428607755</v>
+      </c>
+      <c r="E93" s="14">
+        <f t="shared" si="11"/>
+        <v>1511.5401842676072</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="12"/>
+        <v>1601.4210408725785</v>
+      </c>
+      <c r="G93" s="10">
+        <f t="shared" si="9"/>
+        <v>1601.4210408725785</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="5">
+        <f t="shared" si="10"/>
+        <v>76</v>
+      </c>
+      <c r="C94" s="11">
+        <f t="shared" si="7"/>
+        <v>35479.376765039655</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" si="8"/>
+        <v>1647.6590388843813</v>
+      </c>
+      <c r="E94" s="14">
+        <f t="shared" si="11"/>
+        <v>1601.4210408725785</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="12"/>
+        <v>1696.646491334945</v>
+      </c>
+      <c r="G94" s="10">
+        <f t="shared" si="9"/>
+        <v>1696.646491334945</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="5">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="7"/>
+        <v>37589.090293428198</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" si="8"/>
+        <v>1745.633943785509</v>
+      </c>
+      <c r="E95" s="14">
+        <f t="shared" si="11"/>
+        <v>1696.646491334945</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="12"/>
+        <v>1797.5343417435624</v>
+      </c>
+      <c r="G95" s="10">
+        <f t="shared" si="9"/>
+        <v>1797.5343417435624</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="5">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" si="7"/>
+        <v>39824.253916426394</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" si="8"/>
+        <v>1849.4347397016159</v>
+      </c>
+      <c r="E96" s="14">
+        <f t="shared" si="11"/>
+        <v>1797.5343417435624</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="12"/>
+        <v>1904.4212959207337</v>
+      </c>
+      <c r="G96" s="10">
+        <f t="shared" si="9"/>
+        <v>1904.4212959207337</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="5">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" si="7"/>
         <v>42192.327284847386</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D97" s="6">
+        <f t="shared" si="8"/>
+        <v>1959.4078521398515</v>
+      </c>
+      <c r="E97" s="14">
+        <f t="shared" si="11"/>
+        <v>1904.4212959207337</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="12"/>
+        <v>2017.6640791399195</v>
+      </c>
+      <c r="G97" s="10">
+        <f t="shared" si="9"/>
+        <v>2017.6640791399195</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="5">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C98" s="11">
         <f t="shared" si="7"/>
-        <v>1959.4078521398515</v>
-      </c>
-      <c r="E84" s="14">
-        <f t="shared" si="10"/>
-        <v>1904.4212959207334</v>
-      </c>
-      <c r="F84" s="15">
+        <v>44701.213623424541</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" si="8"/>
+        <v>2075.9203061399876</v>
+      </c>
+      <c r="E98" s="14">
         <f t="shared" si="11"/>
         <v>2017.6640791399195</v>
       </c>
-      <c r="G84" s="10">
-        <f t="shared" si="8"/>
-        <v>2017.6640791399195</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="5">
+      <c r="F98" s="15">
+        <f t="shared" si="12"/>
+        <v>2137.6406286631773</v>
+      </c>
+      <c r="G98" s="10">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="C85" s="11">
-        <f t="shared" si="6"/>
-        <v>44701.213623424534</v>
-      </c>
-      <c r="D85" s="6">
+        <v>2137.6406286631773</v>
+      </c>
+      <c r="J98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="5">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="C99" s="11">
         <f t="shared" si="7"/>
-        <v>2075.9203061399876</v>
-      </c>
-      <c r="E85" s="14">
-        <f t="shared" si="10"/>
-        <v>2017.6640791399195</v>
-      </c>
-      <c r="F85" s="15">
+        <v>47359.286107089247</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" si="8"/>
+        <v>2199.3609511863669</v>
+      </c>
+      <c r="E99" s="14">
         <f t="shared" si="11"/>
         <v>2137.6406286631773</v>
       </c>
-      <c r="G85" s="10">
-        <f t="shared" si="8"/>
-        <v>2137.6406286631773</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="5">
+      <c r="F99" s="15">
+        <f t="shared" si="12"/>
+        <v>2264.7513550716394</v>
+      </c>
+      <c r="G99" s="10">
         <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="C86" s="11">
-        <f t="shared" si="6"/>
-        <v>47359.28610708924</v>
-      </c>
-      <c r="D86" s="6">
+        <v>2264.7513550716394</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="5">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="C100" s="11">
         <f t="shared" si="7"/>
-        <v>2199.3609511863665</v>
-      </c>
-      <c r="E86" s="14">
+        <v>50175.415805663957</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" si="8"/>
+        <v>2330.1417589569114</v>
+      </c>
+      <c r="E100" s="14">
+        <f t="shared" si="11"/>
+        <v>2264.7513550716394</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="12"/>
+        <v>2399.4204785986058</v>
+      </c>
+      <c r="G100" s="10">
+        <f t="shared" si="9"/>
+        <v>2399.4204785986058</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="5">
         <f t="shared" si="10"/>
-        <v>2137.6406286631773</v>
-      </c>
-      <c r="F86" s="15">
+        <v>83</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="7"/>
+        <v>53159.001290233035</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" si="8"/>
+        <v>2468.6991982403006</v>
+      </c>
+      <c r="E101" s="14">
         <f t="shared" si="11"/>
-        <v>2264.7513550716385</v>
-      </c>
-      <c r="G86" s="10">
-        <f t="shared" si="8"/>
-        <v>2264.7513550716385</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="5">
+        <v>2399.4204785986058</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="12"/>
+        <v>2542.0974449251398</v>
+      </c>
+      <c r="G101" s="10">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="C87" s="11">
-        <f t="shared" si="6"/>
-        <v>50175.41580566395</v>
-      </c>
-      <c r="D87" s="6">
+        <v>2542.0974449251398</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="5">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="C102" s="11">
         <f t="shared" si="7"/>
-        <v>2330.141758956911</v>
-      </c>
-      <c r="E87" s="14">
-        <f t="shared" si="10"/>
-        <v>2264.7513550716385</v>
-      </c>
-      <c r="F87" s="15">
-        <f t="shared" si="11"/>
-        <v>2399.4204785986053</v>
-      </c>
-      <c r="G87" s="10">
-        <f t="shared" si="8"/>
-        <v>2399.4204785986053</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="5">
-        <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-      <c r="C88" s="11">
-        <f t="shared" si="6"/>
-        <v>53159.00129023302</v>
-      </c>
-      <c r="D88" s="6">
-        <f t="shared" si="7"/>
-        <v>2468.6991982402997</v>
-      </c>
-      <c r="E88" s="14">
-        <f t="shared" si="10"/>
-        <v>2399.4204785986053</v>
-      </c>
-      <c r="F88" s="15">
+        <v>56320.000000000051</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="8"/>
+        <v>2615.4956916099795</v>
+      </c>
+      <c r="E102" s="14">
         <f t="shared" si="11"/>
         <v>2542.0974449251398</v>
       </c>
-      <c r="G88" s="10">
-        <f t="shared" si="8"/>
-        <v>2542.0974449251398</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="5">
+      <c r="F102" s="15">
+        <f t="shared" si="12"/>
+        <v>2693.258425163247</v>
+      </c>
+      <c r="G102" s="10">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="C89" s="11">
-        <f t="shared" si="6"/>
-        <v>56320.000000000051</v>
-      </c>
-      <c r="D89" s="6">
+        <v>2693.258425163247</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="5">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="C103" s="11">
         <f t="shared" si="7"/>
-        <v>2615.4956916099795</v>
-      </c>
-      <c r="E89" s="14">
-        <f t="shared" si="10"/>
-        <v>2542.0974449251398</v>
-      </c>
-      <c r="F89" s="15">
+        <v>59668.961474315562</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="8"/>
+        <v>2771.021158716514</v>
+      </c>
+      <c r="E103" s="14">
         <f t="shared" si="11"/>
         <v>2693.258425163247</v>
       </c>
-      <c r="G89" s="10">
-        <f t="shared" si="8"/>
-        <v>2693.258425163247</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="5">
+      <c r="F103" s="15">
+        <f t="shared" si="12"/>
+        <v>2853.4079050326964</v>
+      </c>
+      <c r="G103" s="10">
         <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="C90" s="11">
-        <f t="shared" si="6"/>
-        <v>59668.961474315562</v>
-      </c>
-      <c r="D90" s="6">
+        <v>2853.4079050326964</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="5">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="C104" s="11">
         <f t="shared" si="7"/>
-        <v>2771.021158716514</v>
-      </c>
-      <c r="E90" s="14">
+        <v>63217.062560783954</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" si="8"/>
+        <v>2935.7946513488782</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="11"/>
+        <v>2853.4079050326964</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="12"/>
+        <v>3023.0803685352148</v>
+      </c>
+      <c r="G104" s="10">
+        <f t="shared" si="9"/>
+        <v>3023.0803685352148</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="5">
         <f t="shared" si="10"/>
-        <v>2693.258425163247</v>
-      </c>
-      <c r="F90" s="15">
+        <v>87</v>
+      </c>
+      <c r="C105" s="11">
+        <f t="shared" si="7"/>
+        <v>66976.14471695332</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="8"/>
+        <v>3110.3660857215509</v>
+      </c>
+      <c r="E105" s="14">
         <f t="shared" si="11"/>
-        <v>2853.4079050326959</v>
-      </c>
-      <c r="G90" s="10">
-        <f t="shared" si="8"/>
-        <v>2853.4079050326959</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="5">
+        <v>3023.0803685352148</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="12"/>
+        <v>3202.842081745157</v>
+      </c>
+      <c r="G105" s="10">
         <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="C91" s="11">
-        <f t="shared" si="6"/>
-        <v>63217.062560783939</v>
-      </c>
-      <c r="D91" s="6">
+        <v>3202.842081745157</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="5">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="C106" s="11">
         <f t="shared" si="7"/>
-        <v>2935.7946513488778</v>
-      </c>
-      <c r="E91" s="14">
-        <f t="shared" si="10"/>
-        <v>2853.4079050326959</v>
-      </c>
-      <c r="F91" s="15">
-        <f t="shared" si="11"/>
-        <v>3023.0803685352143</v>
-      </c>
-      <c r="G91" s="10">
-        <f t="shared" si="8"/>
-        <v>3023.0803685352143</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="5">
-        <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="C92" s="11">
-        <f t="shared" si="6"/>
-        <v>66976.14471695332</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="7"/>
-        <v>3110.3660857215509</v>
-      </c>
-      <c r="E92" s="14">
-        <f t="shared" si="10"/>
-        <v>3023.0803685352143</v>
-      </c>
-      <c r="F92" s="15">
+        <v>70958.753530079324</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="8"/>
+        <v>3295.318077768763</v>
+      </c>
+      <c r="E106" s="14">
         <f t="shared" si="11"/>
         <v>3202.842081745157</v>
       </c>
-      <c r="G92" s="10">
-        <f t="shared" si="8"/>
-        <v>3202.842081745157</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="5">
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>3393.292982669891</v>
+      </c>
+      <c r="G106" s="10">
         <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="C93" s="11">
-        <f t="shared" si="6"/>
-        <v>70958.75353007931</v>
-      </c>
-      <c r="D93" s="6">
+        <v>3393.292982669891</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="5">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="C107" s="11">
         <f t="shared" si="7"/>
-        <v>3295.3180777687626</v>
-      </c>
-      <c r="E93" s="14">
+        <v>75178.180586856412</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" si="8"/>
+        <v>3491.2678875710189</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="11"/>
+        <v>3393.292982669891</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="12"/>
+        <v>3595.0686834871253</v>
+      </c>
+      <c r="G107" s="10">
+        <f t="shared" si="9"/>
+        <v>3595.0686834871253</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="5">
         <f t="shared" si="10"/>
-        <v>3202.842081745157</v>
-      </c>
-      <c r="F93" s="15">
+        <v>90</v>
+      </c>
+      <c r="C108" s="11">
+        <f t="shared" si="7"/>
+        <v>79648.507832852789</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="8"/>
+        <v>3698.8694794032317</v>
+      </c>
+      <c r="E108" s="14">
         <f t="shared" si="11"/>
-        <v>3393.2929826698901</v>
-      </c>
-      <c r="G93" s="10">
-        <f t="shared" si="8"/>
-        <v>3393.2929826698901</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="5">
+        <v>3595.0686834871253</v>
+      </c>
+      <c r="F108" s="15">
+        <f t="shared" si="12"/>
+        <v>3808.8425918414678</v>
+      </c>
+      <c r="G108" s="10">
         <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="C94" s="11">
-        <f t="shared" si="6"/>
-        <v>75178.180586856397</v>
-      </c>
-      <c r="D94" s="6">
+        <v>3808.8425918414678</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="5">
+        <f t="shared" si="10"/>
+        <v>91</v>
+      </c>
+      <c r="C109" s="11">
         <f t="shared" si="7"/>
-        <v>3491.267887571018</v>
-      </c>
-      <c r="E94" s="14">
+        <v>84384.654569694801</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" si="8"/>
+        <v>3918.8157042797043</v>
+      </c>
+      <c r="E109" s="14">
+        <f t="shared" si="11"/>
+        <v>3808.8425918414678</v>
+      </c>
+      <c r="F109" s="15">
+        <f t="shared" si="12"/>
+        <v>4035.32815827984</v>
+      </c>
+      <c r="G109" s="10">
+        <f t="shared" si="9"/>
+        <v>4035.32815827984</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="5">
         <f t="shared" si="10"/>
-        <v>3393.2929826698901</v>
-      </c>
-      <c r="F94" s="15">
+        <v>92</v>
+      </c>
+      <c r="C110" s="11">
+        <f t="shared" si="7"/>
+        <v>89402.427246849082</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" si="8"/>
+        <v>4151.8406122799752</v>
+      </c>
+      <c r="E110" s="14">
         <f t="shared" si="11"/>
-        <v>3595.0686834871249</v>
-      </c>
-      <c r="G94" s="10">
-        <f t="shared" si="8"/>
-        <v>3595.0686834871249</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="5">
+        <v>4035.32815827984</v>
+      </c>
+      <c r="F110" s="15">
+        <f t="shared" si="12"/>
+        <v>4275.2812573263545</v>
+      </c>
+      <c r="G110" s="10">
         <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="C95" s="11">
-        <f t="shared" si="6"/>
-        <v>79648.507832852789</v>
-      </c>
-      <c r="D95" s="6">
+        <v>4275.2812573263545</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="5">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
+      <c r="C111" s="11">
         <f t="shared" si="7"/>
-        <v>3698.8694794032317</v>
-      </c>
-      <c r="E95" s="14">
-        <f t="shared" si="10"/>
-        <v>3595.0686834871249</v>
-      </c>
-      <c r="F95" s="15">
-        <f t="shared" si="11"/>
-        <v>3808.8425918414673</v>
-      </c>
-      <c r="G95" s="10">
-        <f t="shared" si="8"/>
-        <v>3808.8425918414673</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="5">
-        <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="C96" s="11">
-        <f t="shared" si="6"/>
-        <v>84384.654569694772</v>
-      </c>
-      <c r="D96" s="6">
-        <f t="shared" si="7"/>
-        <v>3918.8157042797029</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="10"/>
-        <v>3808.8425918414673</v>
-      </c>
-      <c r="F96" s="15">
-        <f t="shared" si="11"/>
-        <v>4035.328158279839</v>
-      </c>
-      <c r="G96" s="10">
-        <f t="shared" si="8"/>
-        <v>4035.328158279839</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="5">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="C97" s="11">
-        <f t="shared" si="6"/>
-        <v>89402.427246849082</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="7"/>
-        <v>4151.8406122799752</v>
-      </c>
-      <c r="E97" s="14">
-        <f t="shared" si="10"/>
-        <v>4035.328158279839</v>
-      </c>
-      <c r="F97" s="15">
+        <v>94718.572214178494</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" si="8"/>
+        <v>4398.7219023727339</v>
+      </c>
+      <c r="E111" s="14">
         <f t="shared" si="11"/>
         <v>4275.2812573263545</v>
       </c>
-      <c r="G97" s="10">
-        <f t="shared" si="8"/>
-        <v>4275.2812573263545</v>
-      </c>
-      <c r="J97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="5">
+      <c r="F111" s="15">
+        <f t="shared" si="12"/>
+        <v>4529.5027101432788</v>
+      </c>
+      <c r="G111" s="10">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="C98" s="11">
-        <f t="shared" si="6"/>
-        <v>94718.572214178494</v>
-      </c>
-      <c r="D98" s="6">
+        <v>4529.5027101432788</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="5">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="C112" s="11">
         <f t="shared" si="7"/>
-        <v>4398.7219023727339</v>
-      </c>
-      <c r="E98" s="14">
-        <f t="shared" si="10"/>
-        <v>4275.2812573263545</v>
-      </c>
-      <c r="F98" s="15">
+        <v>100350.83161132793</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" si="8"/>
+        <v>4660.2835179138228</v>
+      </c>
+      <c r="E112" s="14">
         <f t="shared" si="11"/>
         <v>4529.5027101432788</v>
       </c>
-      <c r="G98" s="10">
-        <f t="shared" si="8"/>
-        <v>4529.5027101432788</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="5">
+      <c r="F112" s="15">
+        <f t="shared" si="12"/>
+        <v>4798.8409571972115</v>
+      </c>
+      <c r="G112" s="10">
         <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="C99" s="11">
-        <f t="shared" si="6"/>
-        <v>100350.83161132791</v>
-      </c>
-      <c r="D99" s="6">
+        <v>4798.8409571972115</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="5">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="C113" s="11">
         <f t="shared" si="7"/>
-        <v>4660.2835179138228</v>
-      </c>
-      <c r="E99" s="14">
-        <f t="shared" si="10"/>
-        <v>4529.5027101432788</v>
-      </c>
-      <c r="F99" s="15">
+        <v>106318.00258046607</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="8"/>
+        <v>4937.3983964806011</v>
+      </c>
+      <c r="E113" s="14">
         <f t="shared" si="11"/>
         <v>4798.8409571972115</v>
       </c>
-      <c r="G99" s="10">
-        <f t="shared" si="8"/>
-        <v>4798.8409571972115</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="5">
+      <c r="F113" s="15">
+        <f t="shared" si="12"/>
+        <v>5084.1948898502815</v>
+      </c>
+      <c r="G113" s="10">
         <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="C100" s="11">
-        <f t="shared" si="6"/>
-        <v>106318.00258046607</v>
-      </c>
-      <c r="D100" s="6">
-        <f t="shared" si="7"/>
-        <v>4937.3983964806011</v>
-      </c>
-      <c r="E100" s="14">
+        <v>5084.1948898502815</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="5">
         <f t="shared" si="10"/>
-        <v>4798.8409571972115</v>
-      </c>
-      <c r="F100" s="15">
+        <v>96</v>
+      </c>
+      <c r="C114" s="11">
+        <f t="shared" ref="C114:C116" si="13">$B$6*POWER($B$12,B114)</f>
+        <v>112640.00000000013</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="8"/>
+        <v>5230.9913832199609</v>
+      </c>
+      <c r="E114" s="14">
         <f t="shared" si="11"/>
-        <v>5084.1948898502797</v>
-      </c>
-      <c r="G100" s="10">
-        <f t="shared" si="8"/>
-        <v>5084.1948898502797</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="5">
+        <v>5084.1948898502815</v>
+      </c>
+      <c r="F114" s="15">
+        <f t="shared" si="12"/>
+        <v>5386.5168503264958</v>
+      </c>
+      <c r="G114" s="10">
         <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="C101" s="11">
-        <f t="shared" si="6"/>
-        <v>112640.0000000001</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" si="7"/>
-        <v>5230.9913832199591</v>
-      </c>
-      <c r="E101" s="14">
+        <v>5386.5168503264958</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="5">
         <f t="shared" si="10"/>
-        <v>5084.1948898502797</v>
-      </c>
-      <c r="F101" s="15">
+        <v>97</v>
+      </c>
+      <c r="C115" s="11">
+        <f t="shared" si="13"/>
+        <v>119337.92294863115</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" si="8"/>
+        <v>5542.0423174330299</v>
+      </c>
+      <c r="E115" s="14">
         <f t="shared" si="11"/>
-        <v>5386.516850326494</v>
-      </c>
-      <c r="G101" s="10">
-        <f t="shared" si="8"/>
-        <v>5386.516850326494</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="5">
+        <v>5386.5168503264958</v>
+      </c>
+      <c r="F115" s="15">
+        <f t="shared" si="12"/>
+        <v>5706.8158100653927</v>
+      </c>
+      <c r="G115" s="10">
         <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="C102" s="11">
-        <f t="shared" si="6"/>
-        <v>119337.92294863112</v>
-      </c>
-      <c r="D102" s="6">
-        <f t="shared" si="7"/>
-        <v>5542.0423174330281</v>
-      </c>
-      <c r="E102" s="14">
+        <v>5706.8158100653927</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5">
         <f t="shared" si="10"/>
-        <v>5386.516850326494</v>
-      </c>
-      <c r="F102" s="15">
+        <v>98</v>
+      </c>
+      <c r="C116" s="11">
+        <f t="shared" si="13"/>
+        <v>126434.12512156791</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" si="8"/>
+        <v>5871.5893026977565</v>
+      </c>
+      <c r="E116" s="14">
         <f t="shared" si="11"/>
         <v>5706.8158100653927</v>
       </c>
-      <c r="G102" s="10">
-        <f t="shared" si="8"/>
-        <v>5706.8158100653927</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="5">
+      <c r="F116" s="15">
+        <f t="shared" si="12"/>
+        <v>2935.7946513488782</v>
+      </c>
+      <c r="G116" s="10">
         <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="C103" s="11">
-        <f t="shared" si="6"/>
-        <v>126434.12512156791</v>
-      </c>
-      <c r="D103" s="6">
-        <f t="shared" si="7"/>
-        <v>5871.5893026977565</v>
-      </c>
-      <c r="E103" s="14">
-        <f t="shared" si="10"/>
-        <v>5706.8158100653927</v>
-      </c>
-      <c r="F103" s="15">
-        <f t="shared" si="11"/>
-        <v>6046.1607370704296</v>
-      </c>
-      <c r="G103" s="10">
-        <f t="shared" si="8"/>
-        <v>6046.1607370704296</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="5">
-        <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="C104" s="11">
-        <f t="shared" si="6"/>
-        <v>133952.28943390664</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="7"/>
-        <v>6220.7321714431018</v>
-      </c>
-      <c r="E104" s="14">
-        <f t="shared" si="10"/>
-        <v>6046.1607370704296</v>
-      </c>
-      <c r="F104" s="15">
-        <f t="shared" si="11"/>
-        <v>6405.6841634903139</v>
-      </c>
-      <c r="G104" s="10">
-        <f t="shared" si="8"/>
-        <v>6405.6841634903139</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="5">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="C105" s="11">
-        <f t="shared" si="6"/>
-        <v>141917.50706015865</v>
-      </c>
-      <c r="D105" s="6">
-        <f t="shared" si="7"/>
-        <v>6590.6361555375261</v>
-      </c>
-      <c r="E105" s="14">
-        <f t="shared" si="10"/>
-        <v>6405.6841634903139</v>
-      </c>
-      <c r="F105" s="15">
-        <f t="shared" si="11"/>
-        <v>6786.585965339782</v>
-      </c>
-      <c r="G105" s="10">
-        <f t="shared" si="8"/>
-        <v>6786.585965339782</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="5">
-        <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="C106" s="11">
-        <f t="shared" si="6"/>
-        <v>150356.36117371282</v>
-      </c>
-      <c r="D106" s="6">
-        <f t="shared" si="7"/>
-        <v>6982.5357751420379</v>
-      </c>
-      <c r="E106" s="14">
-        <f t="shared" si="10"/>
-        <v>6786.585965339782</v>
-      </c>
-      <c r="F106" s="15">
-        <f t="shared" si="11"/>
-        <v>7190.1373669742507</v>
-      </c>
-      <c r="G106" s="10">
-        <f t="shared" si="8"/>
-        <v>7190.1373669742507</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="5">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="C107" s="11">
-        <f t="shared" si="6"/>
-        <v>159297.01566570558</v>
-      </c>
-      <c r="D107" s="6">
-        <f t="shared" si="7"/>
-        <v>7397.7389588064634</v>
-      </c>
-      <c r="E107" s="14">
-        <f t="shared" si="10"/>
-        <v>7190.1373669742507</v>
-      </c>
-      <c r="F107" s="15">
-        <f t="shared" si="11"/>
-        <v>7617.6851836829355</v>
-      </c>
-      <c r="G107" s="10">
-        <f t="shared" si="8"/>
-        <v>7617.6851836829355</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="5">
-        <f t="shared" si="9"/>
-        <v>91</v>
-      </c>
-      <c r="C108" s="11">
-        <f t="shared" si="6"/>
-        <v>168769.3091393896</v>
-      </c>
-      <c r="D108" s="6">
-        <f t="shared" si="7"/>
-        <v>7837.6314085594086</v>
-      </c>
-      <c r="E108" s="14">
-        <f t="shared" si="10"/>
-        <v>7617.6851836829355</v>
-      </c>
-      <c r="F108" s="15">
-        <f t="shared" si="11"/>
-        <v>8070.6563165596799</v>
-      </c>
-      <c r="G108" s="10">
-        <f t="shared" si="8"/>
-        <v>8070.6563165596799</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="5">
-        <f t="shared" si="9"/>
-        <v>92</v>
-      </c>
-      <c r="C109" s="11">
-        <f t="shared" si="6"/>
-        <v>178804.85449369816</v>
-      </c>
-      <c r="D109" s="6">
-        <f t="shared" si="7"/>
-        <v>8303.6812245599504</v>
-      </c>
-      <c r="E109" s="14">
-        <f t="shared" si="10"/>
-        <v>8070.6563165596799</v>
-      </c>
-      <c r="F109" s="15">
-        <f t="shared" si="11"/>
-        <v>8550.5625146527091</v>
-      </c>
-      <c r="G109" s="10">
-        <f t="shared" si="8"/>
-        <v>8550.5625146527091</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="5">
-        <f t="shared" si="9"/>
-        <v>93</v>
-      </c>
-      <c r="C110" s="11">
-        <f t="shared" si="6"/>
-        <v>189437.14442835699</v>
-      </c>
-      <c r="D110" s="6">
-        <f t="shared" si="7"/>
-        <v>8797.4438047454678</v>
-      </c>
-      <c r="E110" s="14">
-        <f t="shared" si="10"/>
-        <v>8550.5625146527091</v>
-      </c>
-      <c r="F110" s="15">
-        <f t="shared" si="11"/>
-        <v>9059.0054202865576</v>
-      </c>
-      <c r="G110" s="10">
-        <f t="shared" si="8"/>
-        <v>9059.0054202865576</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="5">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="C111" s="11">
-        <f t="shared" si="6"/>
-        <v>200701.66322265586</v>
-      </c>
-      <c r="D111" s="6">
-        <f t="shared" si="7"/>
-        <v>9320.5670358276457</v>
-      </c>
-      <c r="E111" s="14">
-        <f t="shared" si="10"/>
-        <v>9059.0054202865576</v>
-      </c>
-      <c r="F111" s="15">
-        <f t="shared" si="11"/>
-        <v>9597.6819143944231</v>
-      </c>
-      <c r="G111" s="10">
-        <f t="shared" si="8"/>
-        <v>9597.6819143944231</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="5">
-        <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
-      <c r="C112" s="11">
-        <f t="shared" si="6"/>
-        <v>212636.00516093214</v>
-      </c>
-      <c r="D112" s="6">
-        <f t="shared" si="7"/>
-        <v>9874.7967929612023</v>
-      </c>
-      <c r="E112" s="14">
-        <f t="shared" si="10"/>
-        <v>9597.6819143944231</v>
-      </c>
-      <c r="F112" s="15">
-        <f t="shared" si="11"/>
-        <v>10168.389779700563</v>
-      </c>
-      <c r="G112" s="10">
-        <f t="shared" si="8"/>
-        <v>10168.389779700563</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="5">
-        <f t="shared" si="9"/>
-        <v>96</v>
-      </c>
-      <c r="C113" s="11">
-        <f t="shared" si="6"/>
-        <v>225280.00000000026</v>
-      </c>
-      <c r="D113" s="6">
-        <f t="shared" si="7"/>
-        <v>10461.982766439922</v>
-      </c>
-      <c r="E113" s="14">
-        <f t="shared" si="10"/>
-        <v>10168.389779700563</v>
-      </c>
-      <c r="F113" s="15">
-        <f t="shared" si="11"/>
-        <v>10773.033700652992</v>
-      </c>
-      <c r="G113" s="10">
-        <f t="shared" si="8"/>
-        <v>10773.033700652992</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="5">
-        <f t="shared" si="9"/>
-        <v>97</v>
-      </c>
-      <c r="C114" s="11">
-        <f t="shared" si="6"/>
-        <v>238675.8458972623</v>
-      </c>
-      <c r="D114" s="6">
-        <f t="shared" si="7"/>
-        <v>11084.08463486606</v>
-      </c>
-      <c r="E114" s="14">
-        <f t="shared" si="10"/>
-        <v>10773.033700652992</v>
-      </c>
-      <c r="F114" s="15">
-        <f t="shared" si="11"/>
-        <v>11413.631620130785</v>
-      </c>
-      <c r="G114" s="10">
-        <f t="shared" si="8"/>
-        <v>11413.631620130785</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="5">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
-      <c r="C115" s="11">
-        <f t="shared" si="6"/>
-        <v>252868.25024313582</v>
-      </c>
-      <c r="D115" s="6">
-        <f t="shared" si="7"/>
-        <v>11743.178605395513</v>
-      </c>
-      <c r="E115" s="14">
-        <f t="shared" si="10"/>
-        <v>11413.631620130785</v>
-      </c>
-      <c r="F115" s="15">
-        <f t="shared" si="11"/>
-        <v>5871.5893026977565</v>
-      </c>
-      <c r="G115" s="10">
-        <f t="shared" si="8"/>
-        <v>5871.5893026977565</v>
+        <v>2935.7946513488782</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B17:F17">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$B$17&lt;$B$9</formula>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B$18&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:F45">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$B18&lt;$B$9</formula>
+  <conditionalFormatting sqref="B19:F46">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B19&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:F74">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>$B46&lt;$B$9</formula>
+  <conditionalFormatting sqref="B47:F75">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B47&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:F80">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$B75&lt;$B$9</formula>
+  <conditionalFormatting sqref="B76:F81">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B76&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:F98">
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>$B83&lt;$B$9</formula>
+  <conditionalFormatting sqref="B84:F99">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$B84&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81:F82">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$B81&lt;$B$9</formula>
+  <conditionalFormatting sqref="B82:F83">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$B82&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99:F106">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$B99&lt;$B$9</formula>
+  <conditionalFormatting sqref="B100:F107">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B100&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B107:F115">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$B107&lt;$B$9</formula>
+  <conditionalFormatting sqref="B108:F116">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B108&lt;$B$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
